--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34BA811-C0DE-4CE8-95EE-D71B5362FB59}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3531EAAF-1F27-49E5-8EA9-52D2FC27C2B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
   <si>
     <t>survey_version</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>20-100562_PEW13_Final</t>
+  </si>
+  <si>
+    <t>20-100590_PFW13_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -626,22 +629,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48:K57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3828125" customWidth="1"/>
-    <col min="7" max="7" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.3046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -714,7 +717,7 @@
         <v>17</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I56" si="0">C2&amp;"_"&amp;"wk"&amp;TEXT(D2,"00")&amp;"_"&amp;YEAR(G2)&amp;TEXT(G2,"MM")&amp;TEXT(G2,"DD")&amp;"_p"&amp;E2&amp;"_wv"&amp;TEXT(F2,"00")&amp;""</f>
+        <f t="shared" ref="I2:I57" si="0">C2&amp;"_"&amp;"wk"&amp;TEXT(D2,"00")&amp;"_"&amp;YEAR(G2)&amp;TEXT(G2,"MM")&amp;TEXT(G2,"DD")&amp;"_p"&amp;E2&amp;"_wv"&amp;TEXT(F2,"00")&amp;""</f>
         <v>uk_wk01_20200402_pA_wv01</v>
       </c>
       <c r="J2">
@@ -724,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -760,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -796,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -832,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -868,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -904,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -943,7 +946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -979,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1016,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1090,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1128,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1165,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1202,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1239,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1276,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1350,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1535,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1572,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1646,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1686,7 +1689,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1726,7 +1729,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1763,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1799,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1874,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>52</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F56" si="4">F32+1</f>
+        <f t="shared" ref="F34:F57" si="4">F32+1</f>
         <v>2</v>
       </c>
       <c r="G34" s="1">
@@ -1911,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1948,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1985,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2022,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2059,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2096,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2170,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2207,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2244,7 +2247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2277,8 +2280,11 @@
       <c r="J44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="K44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2315,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2352,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2422,8 +2428,11 @@
       <c r="J48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2456,8 +2465,11 @@
       <c r="J49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2490,8 +2502,11 @@
       <c r="J50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2524,8 +2539,11 @@
       <c r="J51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2558,8 +2576,11 @@
       <c r="J52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2592,8 +2613,11 @@
       <c r="J53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2626,8 +2650,11 @@
       <c r="J54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2660,8 +2687,11 @@
       <c r="J55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="K55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2692,6 +2722,46 @@
         <v>uk_wk44_20210128_pE_wv13</v>
       </c>
       <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57">
+        <v>45</v>
+      </c>
+      <c r="E57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="G57" s="1">
+        <v>44232</v>
+      </c>
+      <c r="H57" t="s">
+        <v>80</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_wk45_20210205_pF_wv13</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
         <v>1</v>
       </c>
     </row>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3531EAAF-1F27-49E5-8EA9-52D2FC27C2B1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1313C0D4-6FBC-4789-9F92-574E67925D9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1313C0D4-6FBC-4789-9F92-574E67925D9D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4CB95A-9734-4CBB-A292-CD4A24297392}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -632,19 +632,19 @@
   <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48:K57"/>
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3828125" customWidth="1"/>
+    <col min="7" max="7" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -691,7 +691,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -763,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -835,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -871,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -946,7 +946,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2</v>
       </c>
@@ -982,7 +982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1019,7 +1019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1242,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1802,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2062,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2284,7 +2284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2321,7 +2321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2469,7 +2469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>3</v>
       </c>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4CB95A-9734-4CBB-A292-CD4A24297392}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0B245C-0EB1-411A-99CC-05755FCE1782}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="83">
   <si>
     <t>survey_version</t>
   </si>
@@ -276,7 +276,13 @@
     <t>20-100562_PEW13_Final</t>
   </si>
   <si>
-    <t>20-100590_PFW13_Final_ICUO</t>
+    <t>20-100562_PEW14_Final_ICUO_V2</t>
+  </si>
+  <si>
+    <t>20-100590_PFW13_Final_IntUseV2</t>
+  </si>
+  <si>
+    <t>Update as people were not asked vaccine questions</t>
   </si>
 </sst>
 </file>
@@ -629,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I57" sqref="I57"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1894,7 +1900,7 @@
         <v>52</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F57" si="4">F32+1</f>
+        <f t="shared" ref="F34:F59" si="4">F32+1</f>
         <v>2</v>
       </c>
       <c r="G34" s="1">
@@ -2432,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2506,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2543,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2580,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2617,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2654,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2691,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2728,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2752,16 +2758,56 @@
         <v>44232</v>
       </c>
       <c r="H57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_wk45_20210205_pF_wv13</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58">
+        <v>46</v>
+      </c>
+      <c r="E58" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="G58" s="1">
+        <v>44246</v>
+      </c>
+      <c r="H58" t="s">
         <v>80</v>
       </c>
-      <c r="I57" t="str">
-        <f t="shared" si="0"/>
-        <v>uk_wk45_20210205_pF_wv13</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
+      <c r="I58" t="str">
+        <f t="shared" ref="I58" si="5">C58&amp;"_"&amp;"wk"&amp;TEXT(D58,"00")&amp;"_"&amp;YEAR(G58)&amp;TEXT(G58,"MM")&amp;TEXT(G58,"DD")&amp;"_p"&amp;E58&amp;"_wv"&amp;TEXT(F58,"00")&amp;""</f>
+        <v>uk_wk46_20210219_pE_wv14</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
         <v>1</v>
       </c>
     </row>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0B245C-0EB1-411A-99CC-05755FCE1782}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3100BA-0B0E-4D02-AE40-6A54C83701F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="84">
   <si>
     <t>survey_version</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>Update as people were not asked vaccine questions</t>
+  </si>
+  <si>
+    <t>20-100590_PFW14_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -635,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+      <selection activeCell="J58" sqref="J58:K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1900,7 +1903,7 @@
         <v>52</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F59" si="4">F32+1</f>
+        <f t="shared" ref="F34:F58" si="4">F32+1</f>
         <v>2</v>
       </c>
       <c r="G34" s="1">
@@ -2795,19 +2798,55 @@
         <v>14</v>
       </c>
       <c r="G58" s="1">
-        <v>44246</v>
+        <v>44238</v>
       </c>
       <c r="H58" t="s">
         <v>80</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" ref="I58" si="5">C58&amp;"_"&amp;"wk"&amp;TEXT(D58,"00")&amp;"_"&amp;YEAR(G58)&amp;TEXT(G58,"MM")&amp;TEXT(G58,"DD")&amp;"_p"&amp;E58&amp;"_wv"&amp;TEXT(F58,"00")&amp;""</f>
-        <v>uk_wk46_20210219_pE_wv14</v>
+        <f t="shared" ref="I58:I59" si="5">C58&amp;"_"&amp;"wk"&amp;TEXT(D58,"00")&amp;"_"&amp;YEAR(G58)&amp;TEXT(G58,"MM")&amp;TEXT(G58,"DD")&amp;"_p"&amp;E58&amp;"_wv"&amp;TEXT(F58,"00")&amp;""</f>
+        <v>uk_wk46_20210211_pE_wv14</v>
       </c>
       <c r="J58">
         <v>1</v>
       </c>
       <c r="K58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>47</v>
+      </c>
+      <c r="E59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59">
+        <v>14</v>
+      </c>
+      <c r="G59" s="1">
+        <v>44245</v>
+      </c>
+      <c r="H59" t="s">
+        <v>83</v>
+      </c>
+      <c r="I59" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_wk47_20210218_pF_wv14</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
         <v>1</v>
       </c>
     </row>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3100BA-0B0E-4D02-AE40-6A54C83701F5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265AE563-B300-4B39-881D-365E044EB8D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="85">
   <si>
     <t>survey_version</t>
   </si>
@@ -279,13 +279,16 @@
     <t>20-100562_PEW14_Final_ICUO_V2</t>
   </si>
   <si>
-    <t>20-100590_PFW13_Final_IntUseV2</t>
-  </si>
-  <si>
     <t>Update as people were not asked vaccine questions</t>
   </si>
   <si>
     <t>20-100590_PFW14_Final_ICUO</t>
+  </si>
+  <si>
+    <t>20-100562_PEW15_Final_ICUO</t>
+  </si>
+  <si>
+    <t>20-100590-PFW13_final_combined.sav</t>
   </si>
 </sst>
 </file>
@@ -638,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J58" sqref="J58:K59"/>
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2761,20 +2764,20 @@
         <v>44232</v>
       </c>
       <c r="H57" t="s">
+        <v>84</v>
+      </c>
+      <c r="I57" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_wk45_20210205_pF_wv13</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
         <v>81</v>
-      </c>
-      <c r="I57" t="str">
-        <f t="shared" si="0"/>
-        <v>uk_wk45_20210205_pF_wv13</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="O57" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.4">
@@ -2804,7 +2807,7 @@
         <v>80</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" ref="I58:I59" si="5">C58&amp;"_"&amp;"wk"&amp;TEXT(D58,"00")&amp;"_"&amp;YEAR(G58)&amp;TEXT(G58,"MM")&amp;TEXT(G58,"DD")&amp;"_p"&amp;E58&amp;"_wv"&amp;TEXT(F58,"00")&amp;""</f>
+        <f t="shared" ref="I58:I60" si="5">C58&amp;"_"&amp;"wk"&amp;TEXT(D58,"00")&amp;"_"&amp;YEAR(G58)&amp;TEXT(G58,"MM")&amp;TEXT(G58,"DD")&amp;"_p"&amp;E58&amp;"_wv"&amp;TEXT(F58,"00")&amp;""</f>
         <v>uk_wk46_20210211_pE_wv14</v>
       </c>
       <c r="J58">
@@ -2837,7 +2840,7 @@
         <v>44245</v>
       </c>
       <c r="H59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="5"/>
@@ -2847,6 +2850,39 @@
         <v>1</v>
       </c>
       <c r="K59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>48</v>
+      </c>
+      <c r="E60" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60">
+        <v>15</v>
+      </c>
+      <c r="G60" s="1">
+        <v>44252</v>
+      </c>
+      <c r="H60" t="s">
+        <v>83</v>
+      </c>
+      <c r="I60" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_wk48_20210225_pE_wv15</v>
+      </c>
+      <c r="J60">
         <v>1</v>
       </c>
     </row>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265AE563-B300-4B39-881D-365E044EB8D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1308EC-BB8C-493C-9973-DADF8962302D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
@@ -288,7 +288,7 @@
     <t>20-100562_PEW15_Final_ICUO</t>
   </si>
   <si>
-    <t>20-100590-PFW13_final_combined.sav</t>
+    <t>20-100590-PFW13_final_combined</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H57" sqref="H57"/>
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF1308EC-BB8C-493C-9973-DADF8962302D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7201138-9343-40D4-80BD-A9A44A732C0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
@@ -45,9 +45,6 @@
     <t>country</t>
   </si>
   <si>
-    <t>week</t>
-  </si>
-  <si>
     <t>panel</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>20-100590-PFW13_final_combined</t>
+  </si>
+  <si>
+    <t>survey_round</t>
   </si>
 </sst>
 </file>
@@ -643,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -667,40 +667,40 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
@@ -711,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>15</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>43923</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" t="str">
         <f t="shared" ref="I2:I57" si="0">C2&amp;"_"&amp;"wk"&amp;TEXT(D2,"00")&amp;"_"&amp;YEAR(G2)&amp;TEXT(G2,"MM")&amp;TEXT(G2,"DD")&amp;"_p"&amp;E2&amp;"_wv"&amp;TEXT(F2,"00")&amp;""</f>
@@ -747,13 +747,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -762,7 +762,7 @@
         <v>43875</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" si="0"/>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>43964</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -834,7 +834,7 @@
         <v>43948</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
@@ -855,13 +855,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -870,7 +870,7 @@
         <v>43949</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
@@ -891,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -906,7 +906,7 @@
         <v>43963</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -942,20 +942,20 @@
         <v>43964</v>
       </c>
       <c r="H8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_wk07_20200513_pA_wv04</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
         <v>24</v>
-      </c>
-      <c r="I8" t="str">
-        <f t="shared" si="0"/>
-        <v>uk_wk07_20200513_pA_wv04</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.4">
@@ -966,13 +966,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -981,7 +981,7 @@
         <v>43970</v>
       </c>
       <c r="H9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
@@ -1002,14 +1002,14 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D10">
         <f>D8+1</f>
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -1018,7 +1018,7 @@
         <v>43973</v>
       </c>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
@@ -1039,14 +1039,14 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <f>D9+1</f>
         <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1055,7 +1055,7 @@
         <v>43993</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
@@ -1076,14 +1076,14 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D12">
         <f t="shared" ref="D12:D21" si="1">D10+1</f>
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12">
         <v>5</v>
@@ -1092,7 +1092,7 @@
         <v>43980</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
@@ -1113,14 +1113,14 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -1130,7 +1130,7 @@
         <v>43979</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
@@ -1151,14 +1151,14 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14">
         <v>5</v>
@@ -1167,7 +1167,7 @@
         <v>43986</v>
       </c>
       <c r="H14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
@@ -1188,14 +1188,14 @@
         <v>0</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -1204,7 +1204,7 @@
         <v>43990</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
@@ -1225,14 +1225,14 @@
         <v>0</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16">
         <v>6</v>
@@ -1241,7 +1241,7 @@
         <v>43994</v>
       </c>
       <c r="H16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
@@ -1262,14 +1262,14 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -1278,7 +1278,7 @@
         <v>43994</v>
       </c>
       <c r="H17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
@@ -1299,14 +1299,14 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18">
         <v>6</v>
@@ -1315,7 +1315,7 @@
         <v>44001</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
@@ -1336,14 +1336,14 @@
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -1352,7 +1352,7 @@
         <v>44001</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
@@ -1373,14 +1373,14 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20">
         <v>7</v>
@@ -1389,7 +1389,7 @@
         <v>44007</v>
       </c>
       <c r="H20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
@@ -1410,14 +1410,14 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -1426,7 +1426,7 @@
         <v>44007</v>
       </c>
       <c r="H21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
@@ -1447,14 +1447,14 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <f>D20+1</f>
         <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22">
         <v>7</v>
@@ -1463,7 +1463,7 @@
         <v>44014</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
@@ -1484,14 +1484,14 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23">
         <f>D21+1</f>
         <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -1500,7 +1500,7 @@
         <v>44015</v>
       </c>
       <c r="H23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
@@ -1521,14 +1521,14 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24">
         <f t="shared" ref="D24:D28" si="3">D22+1</f>
         <v>15</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24">
         <v>8</v>
@@ -1537,7 +1537,7 @@
         <v>44022</v>
       </c>
       <c r="H24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
@@ -1558,14 +1558,14 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D25">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25">
         <v>5</v>
@@ -1574,7 +1574,7 @@
         <v>44021</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
@@ -1595,14 +1595,14 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -1611,7 +1611,7 @@
         <v>44029</v>
       </c>
       <c r="H26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
@@ -1632,14 +1632,14 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27">
         <v>5</v>
@@ -1648,7 +1648,7 @@
         <v>44029</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
@@ -1669,14 +1669,14 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D28">
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F28">
         <v>9</v>
@@ -1685,20 +1685,20 @@
         <v>44036</v>
       </c>
       <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_wk17_20200724_pA_wv09</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
         <v>47</v>
-      </c>
-      <c r="I28" t="str">
-        <f t="shared" si="0"/>
-        <v>uk_wk17_20200724_pA_wv09</v>
-      </c>
-      <c r="J28">
-        <v>1</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="O28" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.4">
@@ -1709,14 +1709,14 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D29">
         <f>D28+1</f>
         <v>18</v>
       </c>
       <c r="E29" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29">
         <v>9</v>
@@ -1725,7 +1725,7 @@
         <v>44043</v>
       </c>
       <c r="H29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
@@ -1738,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="O29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.4">
@@ -1749,14 +1749,14 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D30">
         <f>D29+1</f>
         <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F30">
         <v>10</v>
@@ -1765,7 +1765,7 @@
         <v>44050</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
@@ -1786,13 +1786,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31">
         <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31">
         <v>6</v>
@@ -1801,7 +1801,7 @@
         <v>44053</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
@@ -1822,13 +1822,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D32">
         <v>20</v>
       </c>
       <c r="E32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1837,20 +1837,20 @@
         <v>44064</v>
       </c>
       <c r="H32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_wk20_20200821_pE_wv01</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
         <v>53</v>
-      </c>
-      <c r="I32" t="str">
-        <f t="shared" si="0"/>
-        <v>uk_wk20_20200821_pE_wv01</v>
-      </c>
-      <c r="J32">
-        <v>1</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="O32" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
@@ -1861,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D33">
         <v>21</v>
       </c>
       <c r="E33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1876,7 +1876,7 @@
         <v>44070</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
@@ -1897,13 +1897,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34">
         <v>22</v>
       </c>
       <c r="E34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F34">
         <f t="shared" ref="F34:F58" si="4">F32+1</f>
@@ -1913,7 +1913,7 @@
         <v>44077</v>
       </c>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
@@ -1934,13 +1934,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D35">
         <v>23</v>
       </c>
       <c r="E35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F35">
         <f t="shared" si="4"/>
@@ -1950,7 +1950,7 @@
         <v>44081</v>
       </c>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
@@ -1971,13 +1971,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D36">
         <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F36">
         <f t="shared" si="4"/>
@@ -1987,7 +1987,7 @@
         <v>44088</v>
       </c>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
@@ -2008,13 +2008,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D37">
         <v>25</v>
       </c>
       <c r="E37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F37">
         <f t="shared" si="4"/>
@@ -2024,7 +2024,7 @@
         <v>44092</v>
       </c>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
@@ -2045,13 +2045,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D38">
         <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F38">
         <f t="shared" si="4"/>
@@ -2061,7 +2061,7 @@
         <v>44099</v>
       </c>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
@@ -2082,13 +2082,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D39">
         <v>27</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F39">
         <f t="shared" si="4"/>
@@ -2098,7 +2098,7 @@
         <v>44106</v>
       </c>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
@@ -2119,13 +2119,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D40">
         <v>28</v>
       </c>
       <c r="E40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F40">
         <f t="shared" si="4"/>
@@ -2135,7 +2135,7 @@
         <v>44113</v>
       </c>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
@@ -2156,13 +2156,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D41">
         <v>29</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F41">
         <f t="shared" si="4"/>
@@ -2172,7 +2172,7 @@
         <v>44122</v>
       </c>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
@@ -2193,13 +2193,13 @@
         <v>0</v>
       </c>
       <c r="C42" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D42">
         <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F42">
         <f t="shared" si="4"/>
@@ -2209,7 +2209,7 @@
         <v>44127</v>
       </c>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
@@ -2230,13 +2230,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43">
         <v>31</v>
       </c>
       <c r="E43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F43">
         <f t="shared" si="4"/>
@@ -2246,7 +2246,7 @@
         <v>44134</v>
       </c>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
@@ -2267,13 +2267,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D44">
         <v>32</v>
       </c>
       <c r="E44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F44">
         <f t="shared" si="4"/>
@@ -2283,7 +2283,7 @@
         <v>44141</v>
       </c>
       <c r="H44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
@@ -2304,13 +2304,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D45">
         <v>33</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F45">
         <f t="shared" si="4"/>
@@ -2320,7 +2320,7 @@
         <v>44148</v>
       </c>
       <c r="H45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
@@ -2341,13 +2341,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D46">
         <v>34</v>
       </c>
       <c r="E46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F46">
         <f t="shared" si="4"/>
@@ -2357,7 +2357,7 @@
         <v>44155</v>
       </c>
       <c r="H46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D47">
         <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F47">
         <f t="shared" si="4"/>
@@ -2394,7 +2394,7 @@
         <v>44161</v>
       </c>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
@@ -2415,13 +2415,13 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48">
         <v>36</v>
       </c>
       <c r="E48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F48">
         <f t="shared" si="4"/>
@@ -2431,7 +2431,7 @@
         <v>43924</v>
       </c>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
@@ -2452,13 +2452,13 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D49">
         <v>37</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F49">
         <f t="shared" si="4"/>
@@ -2468,7 +2468,7 @@
         <v>43872</v>
       </c>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
@@ -2489,13 +2489,13 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D50">
         <v>38</v>
       </c>
       <c r="E50" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F50">
         <f t="shared" si="4"/>
@@ -2505,7 +2505,7 @@
         <v>44182</v>
       </c>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D51">
         <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F51">
         <f t="shared" si="4"/>
@@ -2542,7 +2542,7 @@
         <v>44189</v>
       </c>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52">
         <v>40</v>
       </c>
       <c r="E52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52">
         <f t="shared" si="4"/>
@@ -2579,7 +2579,7 @@
         <v>44196</v>
       </c>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
@@ -2600,13 +2600,13 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D53">
         <v>41</v>
       </c>
       <c r="E53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F53">
         <f t="shared" si="4"/>
@@ -2616,7 +2616,7 @@
         <v>44203</v>
       </c>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I53" t="str">
         <f t="shared" si="0"/>
@@ -2637,13 +2637,13 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D54">
         <v>42</v>
       </c>
       <c r="E54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F54">
         <f t="shared" si="4"/>
@@ -2653,7 +2653,7 @@
         <v>44210</v>
       </c>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
@@ -2674,13 +2674,13 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55">
         <v>43</v>
       </c>
       <c r="E55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F55">
         <f t="shared" si="4"/>
@@ -2690,7 +2690,7 @@
         <v>44216</v>
       </c>
       <c r="H55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
@@ -2711,13 +2711,13 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D56">
         <v>44</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F56">
         <f t="shared" si="4"/>
@@ -2727,7 +2727,7 @@
         <v>44224</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
@@ -2748,13 +2748,13 @@
         <v>0</v>
       </c>
       <c r="C57" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D57">
         <v>45</v>
       </c>
       <c r="E57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F57">
         <f t="shared" si="4"/>
@@ -2764,7 +2764,7 @@
         <v>44232</v>
       </c>
       <c r="H57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
@@ -2777,7 +2777,7 @@
         <v>1</v>
       </c>
       <c r="O57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.4">
@@ -2788,13 +2788,13 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D58">
         <v>46</v>
       </c>
       <c r="E58" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F58">
         <f t="shared" si="4"/>
@@ -2804,7 +2804,7 @@
         <v>44238</v>
       </c>
       <c r="H58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" ref="I58:I60" si="5">C58&amp;"_"&amp;"wk"&amp;TEXT(D58,"00")&amp;"_"&amp;YEAR(G58)&amp;TEXT(G58,"MM")&amp;TEXT(G58,"DD")&amp;"_p"&amp;E58&amp;"_wv"&amp;TEXT(F58,"00")&amp;""</f>
@@ -2825,13 +2825,13 @@
         <v>0</v>
       </c>
       <c r="C59" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D59">
         <v>47</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F59">
         <v>14</v>
@@ -2840,7 +2840,7 @@
         <v>44245</v>
       </c>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I59" t="str">
         <f t="shared" si="5"/>
@@ -2861,13 +2861,13 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D60">
         <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F60">
         <v>15</v>
@@ -2876,7 +2876,7 @@
         <v>44252</v>
       </c>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I60" t="str">
         <f t="shared" si="5"/>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7201138-9343-40D4-80BD-A9A44A732C0A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4553E03C-EF2D-4CCA-8ED9-3E05640E7D27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="A1:O60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I3" sqref="I3:I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -729,8 +729,8 @@
         <v>16</v>
       </c>
       <c r="I2" t="str">
-        <f t="shared" ref="I2:I57" si="0">C2&amp;"_"&amp;"wk"&amp;TEXT(D2,"00")&amp;"_"&amp;YEAR(G2)&amp;TEXT(G2,"MM")&amp;TEXT(G2,"DD")&amp;"_p"&amp;E2&amp;"_wv"&amp;TEXT(F2,"00")&amp;""</f>
-        <v>uk_wk01_20200402_pA_wv01</v>
+        <f>C2&amp;"_"&amp;"sr"&amp;TEXT(D2,"00")&amp;"_"&amp;YEAR(G2)&amp;TEXT(G2,"MM")&amp;TEXT(G2,"DD")&amp;"_p"&amp;E2&amp;"_wv"&amp;TEXT(F2,"00")&amp;""</f>
+        <v>uk_sr01_20200402_pA_wv01</v>
       </c>
       <c r="J2">
         <v>1</v>
@@ -765,8 +765,8 @@
         <v>18</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" si="0"/>
-        <v>uk_wk02_20200214_pB_wv01</v>
+        <f t="shared" ref="I3:I60" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
+        <v>uk_sr02_20200214_pB_wv01</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -802,7 +802,7 @@
       </c>
       <c r="I4" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk03_20200513_pA_wv02</v>
+        <v>uk_sr03_20200513_pA_wv02</v>
       </c>
       <c r="J4">
         <v>1</v>
@@ -838,7 +838,7 @@
       </c>
       <c r="I5" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk04_20200427_pB_wv02</v>
+        <v>uk_sr04_20200427_pB_wv02</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -874,7 +874,7 @@
       </c>
       <c r="I6" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk05_20200428_pA_wv03</v>
+        <v>uk_sr05_20200428_pA_wv03</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -910,7 +910,7 @@
       </c>
       <c r="I7" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk06_20200512_pB_wv03</v>
+        <v>uk_sr06_20200512_pB_wv03</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -946,7 +946,7 @@
       </c>
       <c r="I8" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk07_20200513_pA_wv04</v>
+        <v>uk_sr07_20200513_pA_wv04</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -985,7 +985,7 @@
       </c>
       <c r="I9" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk07_20200519_pC_wv01</v>
+        <v>uk_sr07_20200519_pC_wv01</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="I10" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk08_20200522_pB_wv04</v>
+        <v>uk_sr08_20200522_pB_wv04</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1059,7 +1059,7 @@
       </c>
       <c r="I11" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk08_20200611_pD_wv01</v>
+        <v>uk_sr08_20200611_pD_wv01</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="I12" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk09_20200529_pA_wv05</v>
+        <v>uk_sr09_20200529_pA_wv05</v>
       </c>
       <c r="J12">
         <v>1</v>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="I13" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk09_20200528_pC_wv02</v>
+        <v>uk_sr09_20200528_pC_wv02</v>
       </c>
       <c r="J13">
         <v>1</v>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="I14" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk10_20200604_pB_wv05</v>
+        <v>uk_sr10_20200604_pB_wv05</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="I15" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk10_20200608_pD_wv02</v>
+        <v>uk_sr10_20200608_pD_wv02</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk11_20200612_pA_wv06</v>
+        <v>uk_sr11_20200612_pA_wv06</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="I17" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk11_20200612_pC_wv03</v>
+        <v>uk_sr11_20200612_pC_wv03</v>
       </c>
       <c r="J17">
         <v>1</v>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="I18" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk12_20200619_pB_wv06</v>
+        <v>uk_sr12_20200619_pB_wv06</v>
       </c>
       <c r="J18">
         <v>1</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk12_20200619_pD_wv03</v>
+        <v>uk_sr12_20200619_pD_wv03</v>
       </c>
       <c r="J19">
         <v>1</v>
@@ -1393,7 +1393,7 @@
       </c>
       <c r="I20" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk13_20200625_pA_wv07</v>
+        <v>uk_sr13_20200625_pA_wv07</v>
       </c>
       <c r="J20">
         <v>1</v>
@@ -1430,7 +1430,7 @@
       </c>
       <c r="I21" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk13_20200625_pC_wv04</v>
+        <v>uk_sr13_20200625_pC_wv04</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="I22" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk14_20200702_pB_wv07</v>
+        <v>uk_sr14_20200702_pB_wv07</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -1504,7 +1504,7 @@
       </c>
       <c r="I23" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk14_20200703_pD_wv04</v>
+        <v>uk_sr14_20200703_pD_wv04</v>
       </c>
       <c r="J23">
         <v>1</v>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="I24" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk15_20200710_pA_wv08</v>
+        <v>uk_sr15_20200710_pA_wv08</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="I25" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk15_20200709_pC_wv05</v>
+        <v>uk_sr15_20200709_pC_wv05</v>
       </c>
       <c r="J25">
         <v>1</v>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk16_20200717_pB_wv08</v>
+        <v>uk_sr16_20200717_pB_wv08</v>
       </c>
       <c r="J26">
         <v>1</v>
@@ -1652,7 +1652,7 @@
       </c>
       <c r="I27" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk16_20200717_pD_wv05</v>
+        <v>uk_sr16_20200717_pD_wv05</v>
       </c>
       <c r="J27">
         <v>1</v>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="I28" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk17_20200724_pA_wv09</v>
+        <v>uk_sr17_20200724_pA_wv09</v>
       </c>
       <c r="J28">
         <v>1</v>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="I29" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk18_20200731_pB_wv09</v>
+        <v>uk_sr18_20200731_pB_wv09</v>
       </c>
       <c r="J29">
         <v>1</v>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="I30" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk19_20200807_pA_wv10</v>
+        <v>uk_sr19_20200807_pA_wv10</v>
       </c>
       <c r="J30">
         <v>1</v>
@@ -1805,7 +1805,7 @@
       </c>
       <c r="I31" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk19_20200810_pC_wv06</v>
+        <v>uk_sr19_20200810_pC_wv06</v>
       </c>
       <c r="J31">
         <v>1</v>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="I32" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk20_20200821_pE_wv01</v>
+        <v>uk_sr20_20200821_pE_wv01</v>
       </c>
       <c r="J32">
         <v>1</v>
@@ -1880,7 +1880,7 @@
       </c>
       <c r="I33" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk21_20200827_pF_wv01</v>
+        <v>uk_sr21_20200827_pF_wv01</v>
       </c>
       <c r="J33">
         <v>1</v>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="I34" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk22_20200903_pE_wv02</v>
+        <v>uk_sr22_20200903_pE_wv02</v>
       </c>
       <c r="J34">
         <v>1</v>
@@ -1954,7 +1954,7 @@
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk23_20200907_pF_wv02</v>
+        <v>uk_sr23_20200907_pF_wv02</v>
       </c>
       <c r="J35">
         <v>1</v>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk24_20200914_pE_wv03</v>
+        <v>uk_sr24_20200914_pE_wv03</v>
       </c>
       <c r="J36">
         <v>1</v>
@@ -2028,7 +2028,7 @@
       </c>
       <c r="I37" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk25_20200918_pF_wv03</v>
+        <v>uk_sr25_20200918_pF_wv03</v>
       </c>
       <c r="J37">
         <v>1</v>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="I38" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk26_20200925_pE_wv04</v>
+        <v>uk_sr26_20200925_pE_wv04</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -2102,7 +2102,7 @@
       </c>
       <c r="I39" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk27_20201002_pF_wv04</v>
+        <v>uk_sr27_20201002_pF_wv04</v>
       </c>
       <c r="J39">
         <v>1</v>
@@ -2139,7 +2139,7 @@
       </c>
       <c r="I40" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk28_20201009_pE_wv05</v>
+        <v>uk_sr28_20201009_pE_wv05</v>
       </c>
       <c r="J40">
         <v>1</v>
@@ -2176,7 +2176,7 @@
       </c>
       <c r="I41" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk29_20201018_pF_wv05</v>
+        <v>uk_sr29_20201018_pF_wv05</v>
       </c>
       <c r="J41">
         <v>1</v>
@@ -2213,7 +2213,7 @@
       </c>
       <c r="I42" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk30_20201023_pE_wv06</v>
+        <v>uk_sr30_20201023_pE_wv06</v>
       </c>
       <c r="J42">
         <v>1</v>
@@ -2250,7 +2250,7 @@
       </c>
       <c r="I43" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk31_20201030_pF_wv06</v>
+        <v>uk_sr31_20201030_pF_wv06</v>
       </c>
       <c r="J43">
         <v>1</v>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="I44" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk32_20201106_pE_wv07</v>
+        <v>uk_sr32_20201106_pE_wv07</v>
       </c>
       <c r="J44">
         <v>1</v>
@@ -2324,7 +2324,7 @@
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk33_20201113_pF_wv07</v>
+        <v>uk_sr33_20201113_pF_wv07</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="I46" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk34_20201120_pE_wv08</v>
+        <v>uk_sr34_20201120_pE_wv08</v>
       </c>
       <c r="J46">
         <v>1</v>
@@ -2398,7 +2398,7 @@
       </c>
       <c r="I47" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk35_20201126_pF_wv08</v>
+        <v>uk_sr35_20201126_pF_wv08</v>
       </c>
       <c r="J47">
         <v>1</v>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="I48" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk36_20200403_pE_wv09</v>
+        <v>uk_sr36_20200403_pE_wv09</v>
       </c>
       <c r="J48">
         <v>1</v>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="I49" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk37_20200211_pF_wv09</v>
+        <v>uk_sr37_20200211_pF_wv09</v>
       </c>
       <c r="J49">
         <v>1</v>
@@ -2509,7 +2509,7 @@
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk38_20201217_pE_wv10</v>
+        <v>uk_sr38_20201217_pE_wv10</v>
       </c>
       <c r="J50">
         <v>1</v>
@@ -2546,7 +2546,7 @@
       </c>
       <c r="I51" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk39_20201224_pF_wv10</v>
+        <v>uk_sr39_20201224_pF_wv10</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="I52" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk40_20201231_pE_wv11</v>
+        <v>uk_sr40_20201231_pE_wv11</v>
       </c>
       <c r="J52">
         <v>1</v>
@@ -2620,7 +2620,7 @@
       </c>
       <c r="I53" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk41_20210107_pF_wv11</v>
+        <v>uk_sr41_20210107_pF_wv11</v>
       </c>
       <c r="J53">
         <v>1</v>
@@ -2657,7 +2657,7 @@
       </c>
       <c r="I54" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk42_20210114_pE_wv12</v>
+        <v>uk_sr42_20210114_pE_wv12</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2694,7 +2694,7 @@
       </c>
       <c r="I55" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk43_20210120_pF_wv12</v>
+        <v>uk_sr43_20210120_pF_wv12</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="I56" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk44_20210128_pE_wv13</v>
+        <v>uk_sr44_20210128_pE_wv13</v>
       </c>
       <c r="J56">
         <v>1</v>
@@ -2768,7 +2768,7 @@
       </c>
       <c r="I57" t="str">
         <f t="shared" si="0"/>
-        <v>uk_wk45_20210205_pF_wv13</v>
+        <v>uk_sr45_20210205_pF_wv13</v>
       </c>
       <c r="J57">
         <v>1</v>
@@ -2807,8 +2807,8 @@
         <v>79</v>
       </c>
       <c r="I58" t="str">
-        <f t="shared" ref="I58:I60" si="5">C58&amp;"_"&amp;"wk"&amp;TEXT(D58,"00")&amp;"_"&amp;YEAR(G58)&amp;TEXT(G58,"MM")&amp;TEXT(G58,"DD")&amp;"_p"&amp;E58&amp;"_wv"&amp;TEXT(F58,"00")&amp;""</f>
-        <v>uk_wk46_20210211_pE_wv14</v>
+        <f t="shared" si="0"/>
+        <v>uk_sr46_20210211_pE_wv14</v>
       </c>
       <c r="J58">
         <v>1</v>
@@ -2843,8 +2843,8 @@
         <v>81</v>
       </c>
       <c r="I59" t="str">
-        <f t="shared" si="5"/>
-        <v>uk_wk47_20210218_pF_wv14</v>
+        <f t="shared" si="0"/>
+        <v>uk_sr47_20210218_pF_wv14</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -2879,8 +2879,8 @@
         <v>82</v>
       </c>
       <c r="I60" t="str">
-        <f t="shared" si="5"/>
-        <v>uk_wk48_20210225_pE_wv15</v>
+        <f t="shared" si="0"/>
+        <v>uk_sr48_20210225_pE_wv15</v>
       </c>
       <c r="J60">
         <v>1</v>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4553E03C-EF2D-4CCA-8ED9-3E05640E7D27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B440B9B-0142-4560-ABB9-9F84345F4060}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="86">
   <si>
     <t>survey_version</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>survey_round</t>
+  </si>
+  <si>
+    <t>20-100590_PFW15_Final_IntUse_nodups</t>
   </si>
 </sst>
 </file>
@@ -641,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:I60"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -765,7 +768,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I60" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
+        <f t="shared" ref="I3:I61" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
         <v>uk_sr02_20200214_pB_wv01</v>
       </c>
       <c r="J3">
@@ -1906,7 +1909,7 @@
         <v>51</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F58" si="4">F32+1</f>
+        <f t="shared" ref="F34:F60" si="4">F32+1</f>
         <v>2</v>
       </c>
       <c r="G34" s="1">
@@ -2870,6 +2873,7 @@
         <v>51</v>
       </c>
       <c r="F60">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="G60" s="1">
@@ -2883,6 +2887,39 @@
         <v>uk_sr48_20210225_pE_wv15</v>
       </c>
       <c r="J60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61">
+        <v>49</v>
+      </c>
+      <c r="E61" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61">
+        <v>15</v>
+      </c>
+      <c r="G61" s="1">
+        <v>44259</v>
+      </c>
+      <c r="H61" t="s">
+        <v>85</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr49_20210304_pF_wv15</v>
+      </c>
+      <c r="J61">
         <v>1</v>
       </c>
     </row>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amygimma/lshtm/comix_data_clean/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B440B9B-0142-4560-ABB9-9F84345F4060}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E568B1-0F84-AB47-B818-9F27DFA9B0A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="88">
   <si>
     <t>survey_version</t>
   </si>
@@ -291,7 +291,13 @@
     <t>survey_round</t>
   </si>
   <si>
+    <t>20-100590_PFW16_Final_Int.Use</t>
+  </si>
+  <si>
     <t>20-100590_PFW15_Final_IntUse_nodups</t>
+  </si>
+  <si>
+    <t>20-100562_PEW16_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -644,22 +650,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O61"/>
+  <dimension ref="A1:O63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.3828125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3828125" customWidth="1"/>
-    <col min="7" max="7" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.3046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +712,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -742,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -768,7 +774,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I61" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
+        <f t="shared" ref="I3:I63" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
         <v>uk_sr02_20200214_pB_wv01</v>
       </c>
       <c r="J3">
@@ -778,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -814,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -850,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -886,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -922,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -961,7 +967,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -997,7 +1003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1034,7 +1040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1071,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1108,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1183,7 +1189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1220,7 +1226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1257,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1294,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1331,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1405,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1442,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1479,7 +1485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1516,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1553,7 +1559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1590,7 +1596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1627,7 +1633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1664,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1704,7 +1710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1744,7 +1750,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1817,7 +1823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1856,7 +1862,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1909,7 +1915,7 @@
         <v>51</v>
       </c>
       <c r="F34">
-        <f t="shared" ref="F34:F60" si="4">F32+1</f>
+        <f t="shared" ref="F34:F58" si="4">F32+1</f>
         <v>2</v>
       </c>
       <c r="G34" s="1">
@@ -1929,7 +1935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1966,7 +1972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2040,7 +2046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2114,7 +2120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2151,7 +2157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2225,7 +2231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2262,7 +2268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2299,7 +2305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2336,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2373,7 +2379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2410,7 +2416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2447,7 +2453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2521,7 +2527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2595,7 +2601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2632,7 +2638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2669,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2706,7 +2712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2743,7 +2749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2783,7 +2789,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2820,7 +2826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2856,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2873,7 +2879,6 @@
         <v>51</v>
       </c>
       <c r="F60">
-        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="G60" s="1">
@@ -2890,12 +2895,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -2910,17 +2912,68 @@
         <v>15</v>
       </c>
       <c r="G61" s="1">
-        <v>44259</v>
+        <v>44260</v>
       </c>
       <c r="H61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I61" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr49_20210305_pF_wv15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="D62">
+        <v>50</v>
+      </c>
+      <c r="E62" t="s">
+        <v>51</v>
+      </c>
+      <c r="F62">
+        <v>16</v>
+      </c>
+      <c r="G62" s="1">
+        <v>44267</v>
+      </c>
+      <c r="H62" t="s">
+        <v>87</v>
+      </c>
+      <c r="I62" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr50_20210312_pE_wv16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
+        <v>14</v>
+      </c>
+      <c r="D63">
+        <v>51</v>
+      </c>
+      <c r="E63" t="s">
+        <v>54</v>
+      </c>
+      <c r="F63">
+        <v>16</v>
+      </c>
+      <c r="G63" s="1">
+        <v>44274</v>
+      </c>
+      <c r="H63" t="s">
         <v>85</v>
       </c>
-      <c r="I61" t="str">
-        <f t="shared" si="0"/>
-        <v>uk_sr49_20210304_pF_wv15</v>
-      </c>
-      <c r="J61">
-        <v>1</v>
+      <c r="I63" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr51_20210319_pF_wv16</v>
       </c>
     </row>
   </sheetData>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amygimma/lshtm/comix_data_clean/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0E568B1-0F84-AB47-B818-9F27DFA9B0A1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C362BF-5EE4-4374-8E7A-16F6041605B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16440" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="89">
   <si>
     <t>survey_version</t>
   </si>
@@ -298,6 +298,9 @@
   </si>
   <si>
     <t>20-100562_PEW16_Final_ICUO</t>
+  </si>
+  <si>
+    <t>20-100562_PEW17_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -650,22 +653,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O63"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3046875" customWidth="1"/>
+    <col min="7" max="7" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -748,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -774,7 +777,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I63" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
+        <f t="shared" ref="I3:I64" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
         <v>uk_sr02_20200214_pB_wv01</v>
       </c>
       <c r="J3">
@@ -784,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -820,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -856,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -892,7 +895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -928,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -967,7 +970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1003,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1040,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1189,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1263,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1374,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1411,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1485,7 +1488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1559,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1596,7 +1599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1633,7 +1636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1670,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1710,7 +1713,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1750,7 +1753,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1787,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1823,7 +1826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1862,7 +1865,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1898,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1935,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1972,7 +1975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2009,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2046,7 +2049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2083,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2120,7 +2123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2157,7 +2160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2194,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2231,7 +2234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2268,7 +2271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2305,7 +2308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2379,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2416,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2453,7 +2456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2527,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2564,7 +2567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2601,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2638,7 +2641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2675,7 +2678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2712,7 +2715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2789,7 +2792,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2826,7 +2829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2862,7 +2865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2895,9 +2898,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>3</v>
+      </c>
+      <c r="B61">
+        <v>0</v>
       </c>
       <c r="C61" t="s">
         <v>14</v>
@@ -2921,10 +2927,16 @@
         <f t="shared" si="0"/>
         <v>uk_sr49_20210305_pF_wv15</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>3</v>
+      </c>
+      <c r="B62">
+        <v>0</v>
       </c>
       <c r="C62" t="s">
         <v>14</v>
@@ -2948,10 +2960,16 @@
         <f t="shared" si="0"/>
         <v>uk_sr50_20210312_pE_wv16</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="J62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>3</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
       </c>
       <c r="C63" t="s">
         <v>14</v>
@@ -2974,6 +2992,42 @@
       <c r="I63" t="str">
         <f t="shared" si="0"/>
         <v>uk_sr51_20210319_pF_wv16</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="D64">
+        <v>52</v>
+      </c>
+      <c r="E64" t="s">
+        <v>51</v>
+      </c>
+      <c r="F64">
+        <v>17</v>
+      </c>
+      <c r="G64" s="1">
+        <v>44284</v>
+      </c>
+      <c r="H64" t="s">
+        <v>88</v>
+      </c>
+      <c r="I64" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr52_20210329_pE_wv17</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C362BF-5EE4-4374-8E7A-16F6041605B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4B9A7F-5AC1-4AC5-8F38-E5F5909E982D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="93">
   <si>
     <t>survey_version</t>
   </si>
@@ -301,6 +301,18 @@
   </si>
   <si>
     <t>20-100562_PEW17_Final_ICUO</t>
+  </si>
+  <si>
+    <t>20-100590_PFW17_Final_ICUO</t>
+  </si>
+  <si>
+    <t>20-100562_PEW18_Final_ICUO</t>
+  </si>
+  <si>
+    <t>20-100590_PFW18_Final_ICUO</t>
+  </si>
+  <si>
+    <t>20-100562_PEW19_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -653,22 +665,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O64"/>
+  <dimension ref="A1:O68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="J68" sqref="J68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3046875" customWidth="1"/>
-    <col min="7" max="7" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.3046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +727,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -751,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -777,7 +789,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I64" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
+        <f t="shared" ref="I3:I68" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
         <v>uk_sr02_20200214_pB_wv01</v>
       </c>
       <c r="J3">
@@ -787,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -823,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -859,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -895,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -931,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -970,7 +982,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1006,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1043,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1080,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1117,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1155,7 +1167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1192,7 +1204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1229,7 +1241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1266,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1303,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1340,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1377,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1414,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1451,7 +1463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1488,7 +1500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1525,7 +1537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1562,7 +1574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1599,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1636,7 +1648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1673,7 +1685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1713,7 +1725,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1753,7 +1765,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1790,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1826,7 +1838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1865,7 +1877,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1901,7 +1913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1938,7 +1950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1975,7 +1987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2012,7 +2024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2049,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2086,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2123,7 +2135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2160,7 +2172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2197,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2234,7 +2246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2271,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2308,7 +2320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2345,7 +2357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2382,7 +2394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2419,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2456,7 +2468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2493,7 +2505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2530,7 +2542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2567,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2604,7 +2616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2641,7 +2653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2678,7 +2690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2715,7 +2727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2752,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2792,7 +2804,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2829,7 +2841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2865,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2898,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2931,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2964,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -2997,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3027,6 +3039,138 @@
         <v>uk_sr52_20210329_pE_wv17</v>
       </c>
       <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65">
+        <v>53</v>
+      </c>
+      <c r="E65" t="s">
+        <v>54</v>
+      </c>
+      <c r="F65">
+        <v>17</v>
+      </c>
+      <c r="G65" s="1">
+        <v>44292</v>
+      </c>
+      <c r="H65" t="s">
+        <v>89</v>
+      </c>
+      <c r="I65" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr53_20210406_pF_wv17</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>14</v>
+      </c>
+      <c r="D66">
+        <v>54</v>
+      </c>
+      <c r="E66" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66">
+        <v>18</v>
+      </c>
+      <c r="G66" s="1">
+        <v>44295</v>
+      </c>
+      <c r="H66" t="s">
+        <v>90</v>
+      </c>
+      <c r="I66" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr54_20210409_pE_wv18</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>55</v>
+      </c>
+      <c r="E67" t="s">
+        <v>54</v>
+      </c>
+      <c r="F67">
+        <v>18</v>
+      </c>
+      <c r="G67" s="1">
+        <v>44301</v>
+      </c>
+      <c r="H67" t="s">
+        <v>91</v>
+      </c>
+      <c r="I67" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr55_20210415_pF_wv18</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68">
+        <v>56</v>
+      </c>
+      <c r="E68" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68">
+        <v>19</v>
+      </c>
+      <c r="G68" s="1">
+        <v>44308</v>
+      </c>
+      <c r="H68" t="s">
+        <v>92</v>
+      </c>
+      <c r="I68" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr56_20210422_pE_wv19</v>
+      </c>
+      <c r="J68">
         <v>1</v>
       </c>
     </row>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4B9A7F-5AC1-4AC5-8F38-E5F5909E982D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1092E5-51CD-46F9-B25F-3EA6F893BA14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="94">
   <si>
     <t>survey_version</t>
   </si>
@@ -312,7 +312,10 @@
     <t>20-100590_PFW18_Final_ICUO</t>
   </si>
   <si>
-    <t>20-100562_PEW19_Final_ICUO</t>
+    <t>20-100562_PEW19_Final_ICUO_V2</t>
+  </si>
+  <si>
+    <t>20-100590_PFW19_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -665,22 +668,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O68"/>
+  <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J68" sqref="J68"/>
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3046875" customWidth="1"/>
+    <col min="7" max="7" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -727,7 +730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -763,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -789,7 +792,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I68" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
+        <f t="shared" ref="I3:I69" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
         <v>uk_sr02_20200214_pB_wv01</v>
       </c>
       <c r="J3">
@@ -799,7 +802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -835,7 +838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -871,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -907,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -943,7 +946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -982,7 +985,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1018,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1055,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1092,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1167,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1278,7 +1281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1315,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1389,7 +1392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1426,7 +1429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1463,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1500,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1574,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1611,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1648,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1685,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1725,7 +1728,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1765,7 +1768,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1802,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1838,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1877,7 +1880,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1913,7 +1916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1950,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1987,7 +1990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2024,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2061,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2098,7 +2101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2135,7 +2138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2172,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2209,7 +2212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2246,7 +2249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2283,7 +2286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2320,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2357,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2394,7 +2397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2431,7 +2434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2468,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2505,7 +2508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2542,7 +2545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2579,7 +2582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2616,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2653,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2690,7 +2693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2764,7 +2767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2804,7 +2807,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2910,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2943,7 +2946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2976,7 +2979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>3</v>
       </c>
@@ -3009,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3042,7 +3045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>3</v>
       </c>
@@ -3075,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>3</v>
       </c>
@@ -3108,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3141,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3172,6 +3175,36 @@
       </c>
       <c r="J68">
         <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>14</v>
+      </c>
+      <c r="D69">
+        <v>57</v>
+      </c>
+      <c r="E69" t="s">
+        <v>54</v>
+      </c>
+      <c r="F69">
+        <v>19</v>
+      </c>
+      <c r="G69" s="1">
+        <v>44316</v>
+      </c>
+      <c r="H69" t="s">
+        <v>93</v>
+      </c>
+      <c r="I69" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr57_20210430_pF_wv19</v>
       </c>
     </row>
   </sheetData>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1092E5-51CD-46F9-B25F-3EA6F893BA14}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28408AD2-A400-49BB-9993-AEBFB3623110}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="95">
   <si>
     <t>survey_version</t>
   </si>
@@ -316,6 +316,9 @@
   </si>
   <si>
     <t>20-100590_PFW19_Final_ICUO</t>
+  </si>
+  <si>
+    <t>20-100562_PEW20_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -668,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O69"/>
+  <dimension ref="A1:O70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -792,7 +795,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I69" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
+        <f t="shared" ref="I3:I70" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
         <v>uk_sr02_20200214_pB_wv01</v>
       </c>
       <c r="J3">
@@ -3205,6 +3208,42 @@
       <c r="I69" t="str">
         <f t="shared" si="0"/>
         <v>uk_sr57_20210430_pF_wv19</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70">
+        <v>58</v>
+      </c>
+      <c r="E70" t="s">
+        <v>51</v>
+      </c>
+      <c r="F70">
+        <v>20</v>
+      </c>
+      <c r="G70" s="1">
+        <v>44323</v>
+      </c>
+      <c r="H70" t="s">
+        <v>94</v>
+      </c>
+      <c r="I70" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr58_20210507_pE_wv20</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28408AD2-A400-49BB-9993-AEBFB3623110}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFF039F-225C-4F8A-A2DB-64ECB831296A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="2229" yWindow="2229" windowWidth="24685" windowHeight="13148" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="109">
   <si>
     <t>survey_version</t>
   </si>
@@ -319,6 +319,48 @@
   </si>
   <si>
     <t>20-100562_PEW20_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037554_PFW20_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037558_PEW21_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037554_PFW21_Final_icuo</t>
+  </si>
+  <si>
+    <t>21-037558_PEW22_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037554_PFW22_Final_icuo</t>
+  </si>
+  <si>
+    <t>21-037558_PEW23_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037554_PFW23a_Final_ICUO</t>
+  </si>
+  <si>
+    <t>23a</t>
+  </si>
+  <si>
+    <t>21-037554_PFW23b_Final_ICUO</t>
+  </si>
+  <si>
+    <t>23b</t>
+  </si>
+  <si>
+    <t>21-037558_PEW24_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037554_PFW24_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037558_PEW25_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037554_PFW25_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -671,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O70"/>
+  <dimension ref="A1:O82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -795,7 +837,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I70" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
+        <f t="shared" ref="I3:I82" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
         <v>uk_sr02_20200214_pB_wv01</v>
       </c>
       <c r="J3">
@@ -3243,6 +3285,402 @@
         <v>uk_sr58_20210507_pE_wv20</v>
       </c>
       <c r="J70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71">
+        <v>59</v>
+      </c>
+      <c r="E71" t="s">
+        <v>54</v>
+      </c>
+      <c r="F71">
+        <v>20</v>
+      </c>
+      <c r="G71" s="1">
+        <v>44329</v>
+      </c>
+      <c r="H71" t="s">
+        <v>95</v>
+      </c>
+      <c r="I71" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr59_20210513_pF_wv20</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72">
+        <v>60</v>
+      </c>
+      <c r="E72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72">
+        <v>21</v>
+      </c>
+      <c r="G72" s="1">
+        <v>44337</v>
+      </c>
+      <c r="H72" t="s">
+        <v>96</v>
+      </c>
+      <c r="I72" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr60_20210521_pE_wv21</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="D73">
+        <v>61</v>
+      </c>
+      <c r="E73" t="s">
+        <v>54</v>
+      </c>
+      <c r="F73">
+        <v>21</v>
+      </c>
+      <c r="G73" s="1">
+        <v>44344</v>
+      </c>
+      <c r="H73" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr61_20210528_pF_wv21</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74">
+        <v>62</v>
+      </c>
+      <c r="E74" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74">
+        <v>22</v>
+      </c>
+      <c r="G74" s="1">
+        <v>44351</v>
+      </c>
+      <c r="H74" t="s">
+        <v>98</v>
+      </c>
+      <c r="I74" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr62_20210604_pE_wv22</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>14</v>
+      </c>
+      <c r="D75">
+        <v>63</v>
+      </c>
+      <c r="E75" t="s">
+        <v>54</v>
+      </c>
+      <c r="F75">
+        <v>22</v>
+      </c>
+      <c r="G75" s="1">
+        <v>44358</v>
+      </c>
+      <c r="H75" t="s">
+        <v>99</v>
+      </c>
+      <c r="I75" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr63_20210611_pF_wv22</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>3</v>
+      </c>
+      <c r="B76">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76">
+        <v>64</v>
+      </c>
+      <c r="E76" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76">
+        <v>23</v>
+      </c>
+      <c r="G76" s="1">
+        <v>44365</v>
+      </c>
+      <c r="H76" t="s">
+        <v>100</v>
+      </c>
+      <c r="I76" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr64_20210618_pE_wv23</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>3</v>
+      </c>
+      <c r="B77">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77">
+        <v>65</v>
+      </c>
+      <c r="E77" t="s">
+        <v>54</v>
+      </c>
+      <c r="F77" t="s">
+        <v>102</v>
+      </c>
+      <c r="G77" s="1">
+        <v>44372</v>
+      </c>
+      <c r="H77" t="s">
+        <v>101</v>
+      </c>
+      <c r="I77" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr65_20210625_pF_wv23a</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>3</v>
+      </c>
+      <c r="B78">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78">
+        <v>65</v>
+      </c>
+      <c r="E78" t="s">
+        <v>54</v>
+      </c>
+      <c r="F78" t="s">
+        <v>104</v>
+      </c>
+      <c r="G78" s="1">
+        <v>44377</v>
+      </c>
+      <c r="H78" t="s">
+        <v>103</v>
+      </c>
+      <c r="I78" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr65_20210630_pF_wv23b</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>3</v>
+      </c>
+      <c r="B79">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>14</v>
+      </c>
+      <c r="D79">
+        <v>66</v>
+      </c>
+      <c r="E79" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79">
+        <v>24</v>
+      </c>
+      <c r="G79" s="1">
+        <v>44379</v>
+      </c>
+      <c r="H79" t="s">
+        <v>105</v>
+      </c>
+      <c r="I79" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr66_20210702_pE_wv24</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>3</v>
+      </c>
+      <c r="B80">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>14</v>
+      </c>
+      <c r="D80">
+        <v>67</v>
+      </c>
+      <c r="E80" t="s">
+        <v>54</v>
+      </c>
+      <c r="F80">
+        <v>24</v>
+      </c>
+      <c r="G80" s="1">
+        <v>44389</v>
+      </c>
+      <c r="H80" t="s">
+        <v>106</v>
+      </c>
+      <c r="I80" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr67_20210712_pF_wv24</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81">
+        <v>68</v>
+      </c>
+      <c r="E81" t="s">
+        <v>51</v>
+      </c>
+      <c r="F81">
+        <v>25</v>
+      </c>
+      <c r="G81" s="1">
+        <v>44392</v>
+      </c>
+      <c r="H81" t="s">
+        <v>107</v>
+      </c>
+      <c r="I81" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr68_20210715_pE_wv25</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>14</v>
+      </c>
+      <c r="D82">
+        <v>69</v>
+      </c>
+      <c r="E82" t="s">
+        <v>54</v>
+      </c>
+      <c r="F82">
+        <v>25</v>
+      </c>
+      <c r="G82" s="1">
+        <v>44399</v>
+      </c>
+      <c r="H82" t="s">
+        <v>108</v>
+      </c>
+      <c r="I82" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr69_20210722_pF_wv25</v>
+      </c>
+      <c r="J82">
         <v>1</v>
       </c>
     </row>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amygimma/lshtm/comix_data_clean/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFF039F-225C-4F8A-A2DB-64ECB831296A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34585D0-6017-7D41-A570-E4D2FC987D3F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2229" yWindow="2229" windowWidth="24685" windowHeight="13148" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="2220" yWindow="2220" windowWidth="24680" windowHeight="13140" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="110">
   <si>
     <t>survey_version</t>
   </si>
@@ -361,6 +361,9 @@
   </si>
   <si>
     <t>21-037554_PFW25_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037558_PEW26_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -713,22 +716,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3046875" customWidth="1"/>
-    <col min="7" max="7" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.3046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -811,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -837,7 +840,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I82" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
+        <f t="shared" ref="I3:I83" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
         <v>uk_sr02_20200214_pB_wv01</v>
       </c>
       <c r="J3">
@@ -847,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -883,7 +886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -919,7 +922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -955,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -991,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1103,7 +1106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1140,7 +1143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1177,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1289,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1363,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1400,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1437,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1548,7 +1551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1622,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1659,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1696,7 +1699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1733,7 +1736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1813,7 +1816,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1886,7 +1889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1961,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1998,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2035,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2072,7 +2075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2109,7 +2112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2146,7 +2149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2183,7 +2186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2220,7 +2223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2294,7 +2297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2368,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2405,7 +2408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2442,7 +2445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2479,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2553,7 +2556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2590,7 +2593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2664,7 +2667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2701,7 +2704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2775,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2812,7 +2815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2852,7 +2855,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2889,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2925,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2958,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3024,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3</v>
       </c>
@@ -3057,7 +3060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3090,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3</v>
       </c>
@@ -3123,7 +3126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3</v>
       </c>
@@ -3156,7 +3159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3189,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3222,7 +3225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3</v>
       </c>
@@ -3255,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3</v>
       </c>
@@ -3288,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3</v>
       </c>
@@ -3321,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3354,7 +3357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3387,7 +3390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3420,7 +3423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3453,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3486,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3519,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3552,7 +3555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3585,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3</v>
       </c>
@@ -3618,7 +3621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3682,6 +3685,36 @@
       </c>
       <c r="J82">
         <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <v>70</v>
+      </c>
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83">
+        <v>26</v>
+      </c>
+      <c r="G83" s="1">
+        <v>44407</v>
+      </c>
+      <c r="H83" t="s">
+        <v>109</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr70_20210730_pE_wv26</v>
       </c>
     </row>
   </sheetData>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amygimma/lshtm/comix_data_clean/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFF039F-225C-4F8A-A2DB-64ECB831296A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8231E9-8C9F-D848-857F-C67E32E79B71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2229" yWindow="2229" windowWidth="24685" windowHeight="13148" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="2220" yWindow="2220" windowWidth="24680" windowHeight="13140" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="111">
   <si>
     <t>survey_version</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>21-037554_PFW25_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037558_PEW26_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037554_PFW26_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -713,22 +719,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="I88" sqref="I88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3046875" customWidth="1"/>
-    <col min="7" max="7" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.3046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -811,7 +817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -837,7 +843,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I82" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
+        <f t="shared" ref="I3:I84" si="0">C3&amp;"_"&amp;"sr"&amp;TEXT(D3,"00")&amp;"_"&amp;YEAR(G3)&amp;TEXT(G3,"MM")&amp;TEXT(G3,"DD")&amp;"_p"&amp;E3&amp;"_wv"&amp;TEXT(F3,"00")&amp;""</f>
         <v>uk_sr02_20200214_pB_wv01</v>
       </c>
       <c r="J3">
@@ -847,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -883,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -919,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -955,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -991,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1030,7 +1036,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1066,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1103,7 +1109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1177,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1215,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1252,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1289,7 +1295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1326,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1363,7 +1369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1400,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1437,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1474,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1511,7 +1517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1548,7 +1554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1585,7 +1591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1659,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1696,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1733,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1850,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1886,7 +1892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1961,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1998,7 +2004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2035,7 +2041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2072,7 +2078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2109,7 +2115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2146,7 +2152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2183,7 +2189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2257,7 +2263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2294,7 +2300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2331,7 +2337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2368,7 +2374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2442,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2479,7 +2485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2516,7 +2522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2553,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2590,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2627,7 +2633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2664,7 +2670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2701,7 +2707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2738,7 +2744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2775,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2812,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2852,7 +2858,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2889,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2925,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2958,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2991,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3024,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3</v>
       </c>
@@ -3057,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3090,7 +3096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3</v>
       </c>
@@ -3123,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3</v>
       </c>
@@ -3156,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3189,7 +3195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3222,7 +3228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3</v>
       </c>
@@ -3255,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3</v>
       </c>
@@ -3288,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3</v>
       </c>
@@ -3321,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3354,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3387,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3420,7 +3426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3453,7 +3459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3486,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3519,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3552,7 +3558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3585,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3</v>
       </c>
@@ -3618,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3</v>
       </c>
@@ -3651,7 +3657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3682,6 +3688,66 @@
       </c>
       <c r="J82">
         <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <v>70</v>
+      </c>
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83">
+        <v>26</v>
+      </c>
+      <c r="G83" s="1">
+        <v>44407</v>
+      </c>
+      <c r="H83" t="s">
+        <v>109</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr70_20210730_pE_wv26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84">
+        <v>71</v>
+      </c>
+      <c r="E84" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84">
+        <v>26</v>
+      </c>
+      <c r="G84" s="1">
+        <v>44413</v>
+      </c>
+      <c r="H84" t="s">
+        <v>110</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="0"/>
+        <v>uk_sr71_20210805_pF_wv26</v>
       </c>
     </row>
   </sheetData>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFF039F-225C-4F8A-A2DB-64ECB831296A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4FD8EC-27A7-4335-9D49-BC4121B38F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2229" yWindow="2229" windowWidth="24685" windowHeight="13148" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="112">
   <si>
     <t>survey_version</t>
   </si>
@@ -361,6 +361,15 @@
   </si>
   <si>
     <t>21-037554_PFW25_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037558_PEW26_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037554_PFW26_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037558_PEW27_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -713,22 +722,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O82"/>
+  <dimension ref="A1:O85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="J82" sqref="J82"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="J85" sqref="A85:J85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3046875" customWidth="1"/>
-    <col min="7" max="7" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.3046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -811,7 +820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -847,7 +856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -883,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -919,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -955,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -991,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1030,7 +1039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1066,7 +1075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1103,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1140,7 +1149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1177,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1215,7 +1224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1252,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1289,7 +1298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1326,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1363,7 +1372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1400,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1437,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1474,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1511,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1548,7 +1557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1585,7 +1594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1622,7 +1631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1659,7 +1668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1696,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1733,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1773,7 +1782,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1813,7 +1822,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1850,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1886,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1925,7 +1934,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1961,7 +1970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1998,7 +2007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2035,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2072,7 +2081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2109,7 +2118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2146,7 +2155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2183,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2220,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2257,7 +2266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2294,7 +2303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2331,7 +2340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2368,7 +2377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2405,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2442,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2479,7 +2488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2516,7 +2525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2553,7 +2562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2590,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2627,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2664,7 +2673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2701,7 +2710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2738,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2775,7 +2784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2812,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2852,7 +2861,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2889,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2925,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2958,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2991,7 +3000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3024,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -3057,7 +3066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3090,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -3123,7 +3132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -3156,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3189,7 +3198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3222,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -3255,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -3288,7 +3297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -3321,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3354,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3387,7 +3396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3420,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3453,7 +3462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3486,7 +3495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3519,7 +3528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3552,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3585,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -3618,7 +3627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -3651,7 +3660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3681,6 +3690,105 @@
         <v>uk_sr69_20210722_pF_wv25</v>
       </c>
       <c r="J82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>3</v>
+      </c>
+      <c r="B83">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>14</v>
+      </c>
+      <c r="D83">
+        <v>70</v>
+      </c>
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83">
+        <v>26</v>
+      </c>
+      <c r="G83" s="1">
+        <v>44407</v>
+      </c>
+      <c r="H83" t="s">
+        <v>109</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" ref="I83:I85" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
+        <v>uk_sr70_20210730_pE_wv26</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>14</v>
+      </c>
+      <c r="D84">
+        <v>71</v>
+      </c>
+      <c r="E84" t="s">
+        <v>54</v>
+      </c>
+      <c r="F84">
+        <v>26</v>
+      </c>
+      <c r="G84" s="1">
+        <v>44413</v>
+      </c>
+      <c r="H84" t="s">
+        <v>110</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr71_20210805_pF_wv26</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>3</v>
+      </c>
+      <c r="B85">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>14</v>
+      </c>
+      <c r="D85">
+        <v>72</v>
+      </c>
+      <c r="E85" t="s">
+        <v>51</v>
+      </c>
+      <c r="F85">
+        <v>27</v>
+      </c>
+      <c r="G85" s="1">
+        <v>44420</v>
+      </c>
+      <c r="H85" t="s">
+        <v>111</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr72_20210812_pE_wv27</v>
+      </c>
+      <c r="J85">
         <v>1</v>
       </c>
     </row>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amygimma/lshtm/comix_data_clean/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D4FD8EC-27A7-4335-9D49-BC4121B38F92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDD58D8-E519-C042-A5A2-C53BB79BDF05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="114">
   <si>
     <t>survey_version</t>
   </si>
@@ -370,6 +370,12 @@
   </si>
   <si>
     <t>21-037558_PEW27_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037554_PFW27_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037558_PEW28_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -722,22 +728,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O85"/>
+  <dimension ref="A1:O87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J85" sqref="A85:J85"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -820,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -856,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -892,7 +898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -928,7 +934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -964,7 +970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1039,7 +1045,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1075,7 +1081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1112,7 +1118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1149,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1224,7 +1230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1261,7 +1267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1335,7 +1341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1372,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1409,7 +1415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1483,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1520,7 +1526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1557,7 +1563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1594,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1631,7 +1637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1668,7 +1674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1705,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1782,7 +1788,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1822,7 +1828,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1859,7 +1865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1895,7 +1901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1934,7 +1940,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2044,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2118,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2192,7 +2198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2266,7 +2272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2303,7 +2309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2340,7 +2346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2377,7 +2383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2414,7 +2420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2451,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2488,7 +2494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2525,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2562,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2599,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2636,7 +2642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2673,7 +2679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2710,7 +2716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2747,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2821,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2861,7 +2867,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2898,7 +2904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2934,7 +2940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2967,7 +2973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -3000,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3033,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3</v>
       </c>
@@ -3066,7 +3072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3099,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3</v>
       </c>
@@ -3132,7 +3138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3</v>
       </c>
@@ -3165,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3198,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3231,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3</v>
       </c>
@@ -3264,7 +3270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3</v>
       </c>
@@ -3297,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3</v>
       </c>
@@ -3330,7 +3336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3363,7 +3369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3396,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3462,7 +3468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3495,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3528,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3561,7 +3567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3594,7 +3600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3</v>
       </c>
@@ -3627,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3</v>
       </c>
@@ -3660,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3693,7 +3699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3</v>
       </c>
@@ -3719,14 +3725,14 @@
         <v>109</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" ref="I83:I85" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
+        <f t="shared" ref="I83:I87" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
         <v>uk_sr70_20210730_pE_wv26</v>
       </c>
       <c r="J83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3</v>
       </c>
@@ -3759,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3</v>
       </c>
@@ -3790,6 +3796,69 @@
       </c>
       <c r="J85">
         <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>3</v>
+      </c>
+      <c r="B86">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>14</v>
+      </c>
+      <c r="D86">
+        <v>73</v>
+      </c>
+      <c r="E86" t="s">
+        <v>54</v>
+      </c>
+      <c r="F86">
+        <v>27</v>
+      </c>
+      <c r="G86" s="1">
+        <v>44427</v>
+      </c>
+      <c r="H86" t="s">
+        <v>112</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr73_20210819_pF_wv27</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>14</v>
+      </c>
+      <c r="D87">
+        <v>74</v>
+      </c>
+      <c r="E87" t="s">
+        <v>51</v>
+      </c>
+      <c r="F87">
+        <v>28</v>
+      </c>
+      <c r="G87" s="1">
+        <v>44434</v>
+      </c>
+      <c r="H87" t="s">
+        <v>113</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr74_20210826_pE_wv28</v>
       </c>
     </row>
   </sheetData>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amygimma/lshtm/comix_data_clean/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kw\Documents\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDD58D8-E519-C042-A5A2-C53BB79BDF05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD819E1-9728-460B-9166-80CA38F706B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="115">
   <si>
     <t>survey_version</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>21-037558_PEW28_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037554_PFW28_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -728,22 +731,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O87"/>
+  <dimension ref="A1:O88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="J88" sqref="J88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +793,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -826,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -862,7 +865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -898,7 +901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -934,7 +937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -970,7 +973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1006,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1045,7 +1048,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1081,7 +1084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1118,7 +1121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1155,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1267,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1304,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1378,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1415,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1452,7 +1455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1489,7 +1492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1563,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1600,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1637,7 +1640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1674,7 +1677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1711,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1748,7 +1751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1788,7 +1791,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1901,7 +1904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1940,7 +1943,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1976,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2013,7 +2016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2050,7 +2053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2087,7 +2090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2124,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2161,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2198,7 +2201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2346,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2383,7 +2386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2420,7 +2423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2457,7 +2460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2494,7 +2497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2605,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2642,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2753,7 +2756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2790,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2827,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2867,7 +2870,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2904,7 +2907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2940,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2973,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -3006,7 +3009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>3</v>
       </c>
@@ -3072,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3105,7 +3108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>3</v>
       </c>
@@ -3138,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -3171,7 +3174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3204,7 +3207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3237,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>3</v>
       </c>
@@ -3270,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>3</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -3336,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3369,7 +3372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3402,7 +3405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3435,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3501,7 +3504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3534,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3567,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3600,7 +3603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -3633,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -3666,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3699,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -3725,14 +3728,14 @@
         <v>109</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" ref="I83:I87" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
+        <f t="shared" ref="I83:I88" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
         <v>uk_sr70_20210730_pE_wv26</v>
       </c>
       <c r="J83">
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -3765,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -3798,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -3831,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -3859,6 +3862,42 @@
       <c r="I87" t="str">
         <f t="shared" si="5"/>
         <v>uk_sr74_20210826_pE_wv28</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>14</v>
+      </c>
+      <c r="D88">
+        <v>75</v>
+      </c>
+      <c r="E88" t="s">
+        <v>54</v>
+      </c>
+      <c r="F88">
+        <v>28</v>
+      </c>
+      <c r="G88" s="1">
+        <v>44442</v>
+      </c>
+      <c r="H88" t="s">
+        <v>114</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr75_20210903_pF_wv28</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kw\Documents\comix_data_clean\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD819E1-9728-460B-9166-80CA38F706B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF1C6A9-AC8A-4988-87FE-C7AF98330F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="120">
   <si>
     <t>survey_version</t>
   </si>
@@ -379,6 +379,21 @@
   </si>
   <si>
     <t>21-037554_PFW28_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037558_PEW29_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037554_PFW29_FINAL_ICUO</t>
+  </si>
+  <si>
+    <t>21-037558_PEW30_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037554_PFW30_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037558_PEW31_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -731,22 +746,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O88"/>
+  <dimension ref="A1:O93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3046875" customWidth="1"/>
+    <col min="7" max="7" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -793,7 +808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -829,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -865,7 +880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -901,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -937,7 +952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -973,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1009,7 +1024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1048,7 +1063,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1084,7 +1099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1121,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1158,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1195,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1233,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1270,7 +1285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1307,7 +1322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1344,7 +1359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1381,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1418,7 +1433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1455,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1492,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1529,7 +1544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1566,7 +1581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1603,7 +1618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1640,7 +1655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1677,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1714,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1751,7 +1766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1791,7 +1806,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1831,7 +1846,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1868,7 +1883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1904,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1943,7 +1958,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1979,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2016,7 +2031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2053,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2090,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2127,7 +2142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2164,7 +2179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2201,7 +2216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2238,7 +2253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2275,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2312,7 +2327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2349,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2386,7 +2401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2423,7 +2438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2460,7 +2475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2497,7 +2512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2534,7 +2549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2571,7 +2586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2608,7 +2623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2645,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2682,7 +2697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2719,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2756,7 +2771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2793,7 +2808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2830,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2870,7 +2885,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2907,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2943,7 +2958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2975,8 +2990,11 @@
       <c r="J60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>3</v>
       </c>
@@ -3008,8 +3026,11 @@
       <c r="J61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3041,8 +3062,11 @@
       <c r="J62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>3</v>
       </c>
@@ -3074,8 +3098,11 @@
       <c r="J63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3107,8 +3134,11 @@
       <c r="J64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>3</v>
       </c>
@@ -3140,8 +3170,11 @@
       <c r="J65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>3</v>
       </c>
@@ -3173,8 +3206,11 @@
       <c r="J66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3206,8 +3242,11 @@
       <c r="J67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3239,8 +3278,11 @@
       <c r="J68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>3</v>
       </c>
@@ -3272,8 +3314,11 @@
       <c r="J69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>3</v>
       </c>
@@ -3305,8 +3350,11 @@
       <c r="J70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>3</v>
       </c>
@@ -3338,8 +3386,11 @@
       <c r="J71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3371,8 +3422,11 @@
       <c r="J72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3404,8 +3458,11 @@
       <c r="J73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3437,8 +3494,11 @@
       <c r="J74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3470,8 +3530,11 @@
       <c r="J75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3503,8 +3566,11 @@
       <c r="J76">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3536,8 +3602,11 @@
       <c r="J77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3569,8 +3638,11 @@
       <c r="J78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3602,8 +3674,11 @@
       <c r="J79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>3</v>
       </c>
@@ -3635,8 +3710,11 @@
       <c r="J80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>3</v>
       </c>
@@ -3668,8 +3746,11 @@
       <c r="J81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3701,8 +3782,11 @@
       <c r="J82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>3</v>
       </c>
@@ -3728,14 +3812,17 @@
         <v>109</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" ref="I83:I88" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
+        <f t="shared" ref="I83:I93" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
         <v>uk_sr70_20210730_pE_wv26</v>
       </c>
       <c r="J83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>3</v>
       </c>
@@ -3767,8 +3854,11 @@
       <c r="J84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>3</v>
       </c>
@@ -3800,8 +3890,11 @@
       <c r="J85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>3</v>
       </c>
@@ -3833,8 +3926,11 @@
       <c r="J86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>3</v>
       </c>
@@ -3866,8 +3962,11 @@
       <c r="J87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>3</v>
       </c>
@@ -3897,6 +3996,189 @@
         <v>uk_sr75_20210903_pF_wv28</v>
       </c>
       <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89">
+        <v>76</v>
+      </c>
+      <c r="E89" t="s">
+        <v>51</v>
+      </c>
+      <c r="F89">
+        <v>29</v>
+      </c>
+      <c r="G89" s="1">
+        <v>44448</v>
+      </c>
+      <c r="H89" t="s">
+        <v>115</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr76_20210909_pE_wv29</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>3</v>
+      </c>
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>14</v>
+      </c>
+      <c r="D90">
+        <v>77</v>
+      </c>
+      <c r="E90" t="s">
+        <v>54</v>
+      </c>
+      <c r="F90">
+        <v>29</v>
+      </c>
+      <c r="G90" s="1">
+        <v>44456</v>
+      </c>
+      <c r="H90" t="s">
+        <v>116</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr77_20210917_pF_wv29</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>3</v>
+      </c>
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>14</v>
+      </c>
+      <c r="D91">
+        <v>78</v>
+      </c>
+      <c r="E91" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91">
+        <v>30</v>
+      </c>
+      <c r="G91" s="1">
+        <v>44463</v>
+      </c>
+      <c r="H91" t="s">
+        <v>117</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr78_20210924_pE_wv30</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>3</v>
+      </c>
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>14</v>
+      </c>
+      <c r="D92">
+        <v>79</v>
+      </c>
+      <c r="E92" t="s">
+        <v>54</v>
+      </c>
+      <c r="F92">
+        <v>30</v>
+      </c>
+      <c r="G92" s="1">
+        <v>44473</v>
+      </c>
+      <c r="H92" t="s">
+        <v>118</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr79_20211004_pF_wv30</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>14</v>
+      </c>
+      <c r="D93">
+        <v>80</v>
+      </c>
+      <c r="E93" t="s">
+        <v>51</v>
+      </c>
+      <c r="F93">
+        <v>31</v>
+      </c>
+      <c r="G93" s="1">
+        <v>44476</v>
+      </c>
+      <c r="H93" t="s">
+        <v>119</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr80_20211007_pE_wv31</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
         <v>1</v>
       </c>
     </row>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amygimma/lshtm/comix_data_clean/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF1C6A9-AC8A-4988-87FE-C7AF98330F3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E62477-5EE0-9046-A600-50D7713BDE62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="129">
   <si>
     <t>survey_version</t>
   </si>
@@ -394,6 +394,33 @@
   </si>
   <si>
     <t>21-037558_PEW31_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037554_PFW31_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037558_PEW32_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-037554_PFW32_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-088043_PEW33_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-088071_PFW33_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-088043_PEW34_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-088071_PFW34_Final_AMENDED_IntUse</t>
+  </si>
+  <si>
+    <t>21-088043_PEW35_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-088071_PFW35_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -746,22 +773,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3046875" customWidth="1"/>
-    <col min="7" max="7" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.3046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -808,7 +835,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -844,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -880,7 +907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -916,7 +943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -952,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -988,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1024,7 +1051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1063,7 +1090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1099,7 +1126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1136,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1173,7 +1200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1210,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1248,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1285,7 +1312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1322,7 +1349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1359,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1396,7 +1423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1433,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1470,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1507,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1544,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1581,7 +1608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1618,7 +1645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1655,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1692,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1729,7 +1756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1766,7 +1793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1806,7 +1833,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1846,7 +1873,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1883,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1919,7 +1946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1958,7 +1985,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1994,7 +2021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2031,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2068,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2105,7 +2132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2142,7 +2169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2179,7 +2206,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2216,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2253,7 +2280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2290,7 +2317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2327,7 +2354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2364,7 +2391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2401,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2438,7 +2465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2475,7 +2502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2512,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2549,7 +2576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2586,7 +2613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2623,7 +2650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2660,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2697,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2734,7 +2761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2771,7 +2798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2808,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2845,7 +2872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2885,7 +2912,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2922,7 +2949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2958,7 +2985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2994,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -3030,7 +3057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3066,7 +3093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3</v>
       </c>
@@ -3102,7 +3129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3138,7 +3165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3</v>
       </c>
@@ -3174,7 +3201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3</v>
       </c>
@@ -3210,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3246,7 +3273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3282,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3</v>
       </c>
@@ -3318,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3</v>
       </c>
@@ -3354,7 +3381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3</v>
       </c>
@@ -3390,7 +3417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3426,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3462,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3498,7 +3525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3534,7 +3561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3570,7 +3597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3606,7 +3633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3642,7 +3669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3678,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3</v>
       </c>
@@ -3714,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3</v>
       </c>
@@ -3750,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3786,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3</v>
       </c>
@@ -3812,7 +3839,7 @@
         <v>109</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" ref="I83:I93" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
+        <f t="shared" ref="I83:I102" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
         <v>uk_sr70_20210730_pE_wv26</v>
       </c>
       <c r="J83">
@@ -3822,7 +3849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3</v>
       </c>
@@ -3858,7 +3885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3</v>
       </c>
@@ -3894,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3</v>
       </c>
@@ -3930,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3</v>
       </c>
@@ -3966,7 +3993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>3</v>
       </c>
@@ -4002,7 +4029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3</v>
       </c>
@@ -4038,7 +4065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3</v>
       </c>
@@ -4074,7 +4101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>3</v>
       </c>
@@ -4110,7 +4137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>3</v>
       </c>
@@ -4146,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>3</v>
       </c>
@@ -4180,6 +4207,252 @@
       </c>
       <c r="K93">
         <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>3</v>
+      </c>
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94">
+        <v>81</v>
+      </c>
+      <c r="E94" t="s">
+        <v>54</v>
+      </c>
+      <c r="F94">
+        <v>31</v>
+      </c>
+      <c r="G94" s="1">
+        <v>44483</v>
+      </c>
+      <c r="H94" t="s">
+        <v>120</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr81_20211014_pF_wv31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95">
+        <v>82</v>
+      </c>
+      <c r="E95" t="s">
+        <v>51</v>
+      </c>
+      <c r="F95">
+        <v>32</v>
+      </c>
+      <c r="G95" s="1">
+        <v>44491</v>
+      </c>
+      <c r="H95" t="s">
+        <v>121</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr82_20211022_pE_wv32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96">
+        <v>83</v>
+      </c>
+      <c r="E96" t="s">
+        <v>54</v>
+      </c>
+      <c r="F96">
+        <v>32</v>
+      </c>
+      <c r="G96" s="1">
+        <v>44498</v>
+      </c>
+      <c r="H96" t="s">
+        <v>122</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr83_20211029_pF_wv32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>14</v>
+      </c>
+      <c r="D97">
+        <v>84</v>
+      </c>
+      <c r="E97" t="s">
+        <v>51</v>
+      </c>
+      <c r="F97">
+        <v>33</v>
+      </c>
+      <c r="G97" s="1">
+        <v>44504</v>
+      </c>
+      <c r="H97" t="s">
+        <v>123</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr84_20211104_pE_wv33</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>14</v>
+      </c>
+      <c r="D98">
+        <v>85</v>
+      </c>
+      <c r="E98" t="s">
+        <v>54</v>
+      </c>
+      <c r="F98">
+        <v>33</v>
+      </c>
+      <c r="G98" s="1">
+        <v>44512</v>
+      </c>
+      <c r="H98" t="s">
+        <v>124</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr85_20211112_pF_wv33</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99">
+        <v>86</v>
+      </c>
+      <c r="E99" t="s">
+        <v>51</v>
+      </c>
+      <c r="F99">
+        <v>34</v>
+      </c>
+      <c r="G99" s="1">
+        <v>44519</v>
+      </c>
+      <c r="H99" t="s">
+        <v>125</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr86_20211119_pE_wv34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100">
+        <v>87</v>
+      </c>
+      <c r="E100" t="s">
+        <v>54</v>
+      </c>
+      <c r="F100">
+        <v>34</v>
+      </c>
+      <c r="G100" s="1">
+        <v>44525</v>
+      </c>
+      <c r="H100" t="s">
+        <v>126</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr87_20211125_pF_wv34</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>14</v>
+      </c>
+      <c r="D101">
+        <v>88</v>
+      </c>
+      <c r="E101" t="s">
+        <v>51</v>
+      </c>
+      <c r="F101">
+        <v>35</v>
+      </c>
+      <c r="G101" s="1">
+        <v>44533</v>
+      </c>
+      <c r="H101" t="s">
+        <v>127</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr88_20211203_pE_wv35</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="C102" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102">
+        <v>89</v>
+      </c>
+      <c r="E102" t="s">
+        <v>54</v>
+      </c>
+      <c r="F102">
+        <v>35</v>
+      </c>
+      <c r="G102" s="1">
+        <v>44540</v>
+      </c>
+      <c r="H102" t="s">
+        <v>128</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr89_20211210_pF_wv35</v>
       </c>
     </row>
   </sheetData>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amygimma/lshtm/comix_data_clean/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E62477-5EE0-9046-A600-50D7713BDE62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013498AF-7593-FB40-ABD8-ADBFA68ABBD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="130">
   <si>
     <t>survey_version</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>21-088071_PFW35_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-088043_PEW36_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -773,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+      <selection activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3839,7 +3842,7 @@
         <v>109</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" ref="I83:I102" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
+        <f t="shared" ref="I83:I103" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
         <v>uk_sr70_20210730_pE_wv26</v>
       </c>
       <c r="J83">
@@ -4453,6 +4456,33 @@
       <c r="I102" t="str">
         <f t="shared" si="5"/>
         <v>uk_sr89_20211210_pF_wv35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>3</v>
+      </c>
+      <c r="C103" t="s">
+        <v>14</v>
+      </c>
+      <c r="D103">
+        <v>90</v>
+      </c>
+      <c r="E103" t="s">
+        <v>51</v>
+      </c>
+      <c r="F103">
+        <v>36</v>
+      </c>
+      <c r="G103" s="1">
+        <v>44550</v>
+      </c>
+      <c r="H103" t="s">
+        <v>129</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr90_20211220_pE_wv36</v>
       </c>
     </row>
   </sheetData>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amygimma/lshtm/comix_data_clean/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{013498AF-7593-FB40-ABD8-ADBFA68ABBD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68167CD1-7AE4-4F5E-BF0A-E501A83117F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="133">
   <si>
     <t>survey_version</t>
   </si>
@@ -424,6 +424,15 @@
   </si>
   <si>
     <t>21-088043_PEW36_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-088071_PFW36_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-088043_PEW37_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-088071_PFW37_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -776,22 +785,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I103" sqref="I103"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3046875" customWidth="1"/>
+    <col min="7" max="7" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -838,7 +847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -874,7 +883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -910,7 +919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -946,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -982,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1018,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1054,7 +1063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1093,7 +1102,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1166,7 +1175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1203,7 +1212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1240,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1278,7 +1287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1315,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1352,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1389,7 +1398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1426,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1463,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1500,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1537,7 +1546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1574,7 +1583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1611,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1648,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1685,7 +1694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1722,7 +1731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1759,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1796,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1836,7 +1845,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1876,7 +1885,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1913,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1949,7 +1958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1988,7 +1997,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2024,7 +2033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2061,7 +2070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2098,7 +2107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2135,7 +2144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2172,7 +2181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2209,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2246,7 +2255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2283,7 +2292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2320,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2357,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2394,7 +2403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2431,7 +2440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2468,7 +2477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2505,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2542,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2579,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2616,7 +2625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2653,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2690,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2727,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2764,7 +2773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2801,7 +2810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2838,7 +2847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2875,7 +2884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2915,7 +2924,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2952,7 +2961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2988,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>3</v>
       </c>
@@ -3024,7 +3033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>3</v>
       </c>
@@ -3060,7 +3069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3096,7 +3105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>3</v>
       </c>
@@ -3132,7 +3141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3168,7 +3177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>3</v>
       </c>
@@ -3204,7 +3213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>3</v>
       </c>
@@ -3240,7 +3249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3276,7 +3285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3312,7 +3321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>3</v>
       </c>
@@ -3348,7 +3357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>3</v>
       </c>
@@ -3384,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>3</v>
       </c>
@@ -3420,7 +3429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3456,7 +3465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3492,7 +3501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3528,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3564,7 +3573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3600,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3636,7 +3645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3672,7 +3681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3708,7 +3717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>3</v>
       </c>
@@ -3744,7 +3753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>3</v>
       </c>
@@ -3780,7 +3789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3816,7 +3825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>3</v>
       </c>
@@ -3842,7 +3851,7 @@
         <v>109</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" ref="I83:I103" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
+        <f t="shared" ref="I83:I106" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
         <v>uk_sr70_20210730_pE_wv26</v>
       </c>
       <c r="J83">
@@ -3852,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>3</v>
       </c>
@@ -3888,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>3</v>
       </c>
@@ -3924,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>3</v>
       </c>
@@ -3960,7 +3969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>3</v>
       </c>
@@ -3996,7 +4005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>3</v>
       </c>
@@ -4032,7 +4041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>3</v>
       </c>
@@ -4068,7 +4077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>3</v>
       </c>
@@ -4104,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>3</v>
       </c>
@@ -4140,7 +4149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>3</v>
       </c>
@@ -4176,9 +4185,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4212,9 +4221,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -4241,10 +4250,19 @@
         <f t="shared" si="5"/>
         <v>uk_sr81_20211014_pF_wv31</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B95">
+        <v>0</v>
       </c>
       <c r="C95" t="s">
         <v>14</v>
@@ -4268,10 +4286,19 @@
         <f t="shared" si="5"/>
         <v>uk_sr82_20211022_pE_wv32</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B96">
+        <v>0</v>
       </c>
       <c r="C96" t="s">
         <v>14</v>
@@ -4295,10 +4322,19 @@
         <f t="shared" si="5"/>
         <v>uk_sr83_20211029_pF_wv32</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>0</v>
       </c>
       <c r="C97" t="s">
         <v>14</v>
@@ -4322,10 +4358,19 @@
         <f t="shared" si="5"/>
         <v>uk_sr84_20211104_pE_wv33</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B98">
+        <v>0</v>
       </c>
       <c r="C98" t="s">
         <v>14</v>
@@ -4349,10 +4394,19 @@
         <f t="shared" si="5"/>
         <v>uk_sr85_20211112_pF_wv33</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B99">
+        <v>0</v>
       </c>
       <c r="C99" t="s">
         <v>14</v>
@@ -4376,10 +4430,19 @@
         <f t="shared" si="5"/>
         <v>uk_sr86_20211119_pE_wv34</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B100">
+        <v>0</v>
       </c>
       <c r="C100" t="s">
         <v>14</v>
@@ -4403,10 +4466,19 @@
         <f t="shared" si="5"/>
         <v>uk_sr87_20211125_pF_wv34</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B101">
+        <v>0</v>
       </c>
       <c r="C101" t="s">
         <v>14</v>
@@ -4430,10 +4502,19 @@
         <f t="shared" si="5"/>
         <v>uk_sr88_20211203_pE_wv35</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B102">
+        <v>0</v>
       </c>
       <c r="C102" t="s">
         <v>14</v>
@@ -4457,10 +4538,19 @@
         <f t="shared" si="5"/>
         <v>uk_sr89_20211210_pF_wv35</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>3</v>
+        <v>8</v>
+      </c>
+      <c r="B103">
+        <v>0</v>
       </c>
       <c r="C103" t="s">
         <v>14</v>
@@ -4483,6 +4573,120 @@
       <c r="I103" t="str">
         <f t="shared" si="5"/>
         <v>uk_sr90_20211220_pE_wv36</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A104">
+        <v>8</v>
+      </c>
+      <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>14</v>
+      </c>
+      <c r="D104">
+        <v>91</v>
+      </c>
+      <c r="E104" t="s">
+        <v>54</v>
+      </c>
+      <c r="F104">
+        <v>36</v>
+      </c>
+      <c r="G104" s="1">
+        <v>44554</v>
+      </c>
+      <c r="H104" t="s">
+        <v>130</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr91_20211224_pF_wv36</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>8</v>
+      </c>
+      <c r="B105">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>14</v>
+      </c>
+      <c r="D105">
+        <v>92</v>
+      </c>
+      <c r="E105" t="s">
+        <v>51</v>
+      </c>
+      <c r="F105">
+        <v>37</v>
+      </c>
+      <c r="G105" s="1">
+        <v>44560</v>
+      </c>
+      <c r="H105" t="s">
+        <v>131</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr92_20211230_pE_wv37</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A106">
+        <v>8</v>
+      </c>
+      <c r="B106">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>14</v>
+      </c>
+      <c r="D106">
+        <v>93</v>
+      </c>
+      <c r="E106" t="s">
+        <v>54</v>
+      </c>
+      <c r="F106">
+        <v>37</v>
+      </c>
+      <c r="G106" s="1">
+        <v>44568</v>
+      </c>
+      <c r="H106" t="s">
+        <v>132</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr93_20220107_pF_wv37</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68167CD1-7AE4-4F5E-BF0A-E501A83117F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2568D9FC-AB82-4559-89BA-C614F1B1E5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24686" windowHeight="13191" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="134">
   <si>
     <t>survey_version</t>
   </si>
@@ -433,6 +433,9 @@
   </si>
   <si>
     <t>21-088071_PFW37_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-088043_PEW38_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -785,10 +788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O106"/>
+  <dimension ref="A1:O107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="K106" sqref="K106"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="L107" sqref="L107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3851,7 +3854,7 @@
         <v>109</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" ref="I83:I106" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
+        <f t="shared" ref="I83:I107" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
         <v>uk_sr70_20210730_pE_wv26</v>
       </c>
       <c r="J83">
@@ -4686,6 +4689,42 @@
         <v>1</v>
       </c>
       <c r="K106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>14</v>
+      </c>
+      <c r="D107">
+        <v>94</v>
+      </c>
+      <c r="E107" t="s">
+        <v>51</v>
+      </c>
+      <c r="F107">
+        <v>38</v>
+      </c>
+      <c r="G107" s="1">
+        <v>44574</v>
+      </c>
+      <c r="H107" t="s">
+        <v>133</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr94_20220113_pE_wv38</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
         <v>1</v>
       </c>
     </row>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amygimma/lshtm/comix_data_clean/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2568D9FC-AB82-4559-89BA-C614F1B1E5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F98DD7-85D7-0D4F-A27F-55D3FF41A154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24686" windowHeight="13191" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="720" yWindow="720" windowWidth="24680" windowHeight="13200" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="135">
   <si>
     <t>survey_version</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>21-088043_PEW38_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-088071_PFW38_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -788,22 +791,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O107"/>
+  <dimension ref="A1:O108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="L107" sqref="L107"/>
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.3046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3046875" customWidth="1"/>
-    <col min="7" max="7" width="10.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.3046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.3046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -850,7 +853,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -886,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -922,7 +925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -958,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -994,7 +997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1066,7 +1069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1105,7 +1108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1141,7 +1144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1178,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1290,7 +1293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1327,7 +1330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1364,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1438,7 +1441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1475,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1549,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1586,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1623,7 +1626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1660,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1697,7 +1700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1734,7 +1737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1771,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1808,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1848,7 +1851,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1888,7 +1891,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1925,7 +1928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1961,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2000,7 +2003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2036,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2073,7 +2076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2110,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2221,7 +2224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2258,7 +2261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2295,7 +2298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2332,7 +2335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2369,7 +2372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2406,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2443,7 +2446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2480,7 +2483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2517,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2591,7 +2594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2665,7 +2668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2702,7 +2705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2739,7 +2742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2776,7 +2779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2813,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2850,7 +2853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2927,7 +2930,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2964,7 +2967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -3000,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -3036,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>3</v>
       </c>
@@ -3072,7 +3075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3108,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3</v>
       </c>
@@ -3144,7 +3147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3180,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>3</v>
       </c>
@@ -3216,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>3</v>
       </c>
@@ -3252,7 +3255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3288,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3324,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>3</v>
       </c>
@@ -3360,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>3</v>
       </c>
@@ -3396,7 +3399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3</v>
       </c>
@@ -3432,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3468,7 +3471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3504,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3540,7 +3543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3576,7 +3579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3612,7 +3615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3648,7 +3651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3684,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3720,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3</v>
       </c>
@@ -3756,7 +3759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3</v>
       </c>
@@ -3792,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3828,7 +3831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3</v>
       </c>
@@ -3854,7 +3857,7 @@
         <v>109</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" ref="I83:I107" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
+        <f t="shared" ref="I83:I108" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
         <v>uk_sr70_20210730_pE_wv26</v>
       </c>
       <c r="J83">
@@ -3864,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3</v>
       </c>
@@ -3900,7 +3903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3</v>
       </c>
@@ -3972,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>3</v>
       </c>
@@ -4008,7 +4011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>3</v>
       </c>
@@ -4044,7 +4047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>3</v>
       </c>
@@ -4080,7 +4083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>3</v>
       </c>
@@ -4116,7 +4119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>3</v>
       </c>
@@ -4152,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>3</v>
       </c>
@@ -4188,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>8</v>
       </c>
@@ -4224,7 +4227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>8</v>
       </c>
@@ -4260,7 +4263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>8</v>
       </c>
@@ -4296,7 +4299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>8</v>
       </c>
@@ -4332,7 +4335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>8</v>
       </c>
@@ -4368,7 +4371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>8</v>
       </c>
@@ -4404,7 +4407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>8</v>
       </c>
@@ -4440,7 +4443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>8</v>
       </c>
@@ -4476,7 +4479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>8</v>
       </c>
@@ -4512,7 +4515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>8</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>8</v>
       </c>
@@ -4584,7 +4587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>8</v>
       </c>
@@ -4620,7 +4623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>8</v>
       </c>
@@ -4656,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>8</v>
       </c>
@@ -4692,7 +4695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>8</v>
       </c>
@@ -4726,6 +4729,33 @@
       </c>
       <c r="K107">
         <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108">
+        <v>8</v>
+      </c>
+      <c r="C108" t="s">
+        <v>14</v>
+      </c>
+      <c r="D108">
+        <v>95</v>
+      </c>
+      <c r="E108" t="s">
+        <v>54</v>
+      </c>
+      <c r="F108">
+        <v>38</v>
+      </c>
+      <c r="G108" s="1">
+        <v>44582</v>
+      </c>
+      <c r="H108" t="s">
+        <v>134</v>
+      </c>
+      <c r="I108" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr95_20220121_pF_wv38</v>
       </c>
     </row>
   </sheetData>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amygimma/lshtm/comix_data_clean/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F98DD7-85D7-0D4F-A27F-55D3FF41A154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C869A3-6301-456D-9FC0-B804A0066303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="720" windowWidth="24680" windowHeight="13200" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="136">
   <si>
     <t>survey_version</t>
   </si>
@@ -439,6 +439,9 @@
   </si>
   <si>
     <t>21-088071_PFW38_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-088071_PFW39_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -791,22 +794,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O108"/>
+  <dimension ref="A1:O109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3046875" customWidth="1"/>
+    <col min="7" max="7" width="10.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.3046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -889,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -925,7 +928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>1</v>
       </c>
@@ -961,7 +964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>1</v>
       </c>
@@ -997,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1033,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1108,7 +1111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1144,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1181,7 +1184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1218,7 +1221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1255,7 +1258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1293,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1404,7 +1407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1478,7 +1481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1515,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1626,7 +1629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1700,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1737,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1774,7 +1777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1811,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1891,7 +1894,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1928,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3</v>
       </c>
@@ -2003,7 +2006,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>3</v>
       </c>
@@ -2039,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>3</v>
       </c>
@@ -2076,7 +2079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>3</v>
       </c>
@@ -2113,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>3</v>
       </c>
@@ -2150,7 +2153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>3</v>
       </c>
@@ -2187,7 +2190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>3</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>3</v>
       </c>
@@ -2261,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>3</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2335,7 +2338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2372,7 +2375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2409,7 +2412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2446,7 +2449,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2483,7 +2486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2520,7 +2523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2557,7 +2560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2594,7 +2597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2631,7 +2634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2668,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2742,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2779,7 +2782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2816,7 +2819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2853,7 +2856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2890,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2930,7 +2933,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2967,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>3</v>
       </c>
@@ -3003,7 +3006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>3</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>3</v>
       </c>
@@ -3075,7 +3078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>3</v>
       </c>
@@ -3111,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>3</v>
       </c>
@@ -3147,7 +3150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>3</v>
       </c>
@@ -3183,7 +3186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>3</v>
       </c>
@@ -3219,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>3</v>
       </c>
@@ -3255,7 +3258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>3</v>
       </c>
@@ -3291,7 +3294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>3</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>3</v>
       </c>
@@ -3363,7 +3366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>3</v>
       </c>
@@ -3399,7 +3402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>3</v>
       </c>
@@ -3435,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3471,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3507,7 +3510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3543,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3579,7 +3582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3615,7 +3618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3651,7 +3654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>3</v>
       </c>
@@ -3687,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>3</v>
       </c>
@@ -3723,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>3</v>
       </c>
@@ -3759,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>3</v>
       </c>
@@ -3795,7 +3798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>3</v>
       </c>
@@ -3831,7 +3834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>3</v>
       </c>
@@ -3857,7 +3860,7 @@
         <v>109</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" ref="I83:I108" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
+        <f t="shared" ref="I83:I109" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
         <v>uk_sr70_20210730_pE_wv26</v>
       </c>
       <c r="J83">
@@ -3867,7 +3870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>3</v>
       </c>
@@ -3903,7 +3906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>3</v>
       </c>
@@ -3939,7 +3942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>3</v>
       </c>
@@ -3975,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>3</v>
       </c>
@@ -4011,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>3</v>
       </c>
@@ -4047,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>3</v>
       </c>
@@ -4083,7 +4086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>3</v>
       </c>
@@ -4119,7 +4122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>3</v>
       </c>
@@ -4155,7 +4158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>3</v>
       </c>
@@ -4191,7 +4194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>8</v>
       </c>
@@ -4227,7 +4230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>8</v>
       </c>
@@ -4263,7 +4266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>8</v>
       </c>
@@ -4299,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>8</v>
       </c>
@@ -4335,7 +4338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>8</v>
       </c>
@@ -4371,7 +4374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>8</v>
       </c>
@@ -4407,7 +4410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>8</v>
       </c>
@@ -4443,7 +4446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>8</v>
       </c>
@@ -4479,7 +4482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>8</v>
       </c>
@@ -4515,7 +4518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>8</v>
       </c>
@@ -4551,7 +4554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>8</v>
       </c>
@@ -4587,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>8</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>8</v>
       </c>
@@ -4659,7 +4662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>8</v>
       </c>
@@ -4695,7 +4698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>8</v>
       </c>
@@ -4731,9 +4734,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>8</v>
+      </c>
+      <c r="B108">
+        <v>0</v>
       </c>
       <c r="C108" t="s">
         <v>14</v>
@@ -4756,6 +4762,48 @@
       <c r="I108" t="str">
         <f t="shared" si="5"/>
         <v>uk_sr95_20220121_pF_wv38</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A109">
+        <v>8</v>
+      </c>
+      <c r="B109">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>14</v>
+      </c>
+      <c r="D109">
+        <v>96</v>
+      </c>
+      <c r="E109" t="s">
+        <v>51</v>
+      </c>
+      <c r="F109">
+        <v>39</v>
+      </c>
+      <c r="G109" s="1">
+        <v>44596</v>
+      </c>
+      <c r="H109" t="s">
+        <v>135</v>
+      </c>
+      <c r="I109" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr96_20220204_pE_wv39</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C869A3-6301-456D-9FC0-B804A0066303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7A3D50-6859-465F-964B-25F0FD5E6A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="2126" yWindow="2803" windowWidth="24685" windowHeight="13191" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="139">
   <si>
     <t>survey_version</t>
   </si>
@@ -442,6 +442,15 @@
   </si>
   <si>
     <t>21-088071_PFW39_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-088043_PEW39_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-088043_PEW40_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-088071_PFW40_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -794,10 +803,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O109"/>
+  <dimension ref="A1:O112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="I112" sqref="I112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3860,7 +3869,7 @@
         <v>109</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" ref="I83:I109" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
+        <f t="shared" ref="I83:I112" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
         <v>uk_sr70_20210730_pE_wv26</v>
       </c>
       <c r="J83">
@@ -4790,19 +4799,127 @@
         <v>39</v>
       </c>
       <c r="G109" s="1">
-        <v>44596</v>
+        <v>44592</v>
       </c>
       <c r="H109" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I109" t="str">
         <f t="shared" si="5"/>
-        <v>uk_sr96_20220204_pE_wv39</v>
+        <v>uk_sr96_20220131_pE_wv39</v>
       </c>
       <c r="J109">
         <v>1</v>
       </c>
       <c r="K109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A110">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>14</v>
+      </c>
+      <c r="D110">
+        <v>97</v>
+      </c>
+      <c r="E110" t="s">
+        <v>54</v>
+      </c>
+      <c r="F110">
+        <v>39</v>
+      </c>
+      <c r="G110" s="1">
+        <v>44596</v>
+      </c>
+      <c r="H110" t="s">
+        <v>135</v>
+      </c>
+      <c r="I110" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr97_20220204_pF_wv39</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A111">
+        <v>8</v>
+      </c>
+      <c r="B111">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>14</v>
+      </c>
+      <c r="D111">
+        <v>98</v>
+      </c>
+      <c r="E111" t="s">
+        <v>51</v>
+      </c>
+      <c r="F111">
+        <v>40</v>
+      </c>
+      <c r="G111" s="1">
+        <v>44602</v>
+      </c>
+      <c r="H111" t="s">
+        <v>137</v>
+      </c>
+      <c r="I111" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr98_20220210_pE_wv40</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A112">
+        <v>8</v>
+      </c>
+      <c r="B112">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>14</v>
+      </c>
+      <c r="D112">
+        <v>99</v>
+      </c>
+      <c r="E112" t="s">
+        <v>54</v>
+      </c>
+      <c r="F112">
+        <v>40</v>
+      </c>
+      <c r="G112" s="1">
+        <v>44610</v>
+      </c>
+      <c r="H112" t="s">
+        <v>138</v>
+      </c>
+      <c r="I112" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr99_20220218_pF_wv40</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
         <v>1</v>
       </c>
     </row>

--- a/data/spss_uk.xlsx
+++ b/data/spss_uk.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarvisc1\Documents\projects\comix_data_clean\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7A3D50-6859-465F-964B-25F0FD5E6A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B423CEF6-752B-4E8A-AC93-8D915CBC33B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2126" yWindow="2803" windowWidth="24685" windowHeight="13191" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{B6B7C775-E4A7-4345-8BD6-E691E151534C}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="141">
   <si>
     <t>survey_version</t>
   </si>
@@ -451,6 +451,12 @@
   </si>
   <si>
     <t>21-088071_PFW40_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-088043_PEW41_Final_ICUO</t>
+  </si>
+  <si>
+    <t>21-088071_PFW41_Final_ICUO</t>
   </si>
 </sst>
 </file>
@@ -803,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48E8812C-49CD-4565-ACAD-8E318F9F9624}">
-  <dimension ref="A1:O112"/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="I112" sqref="I112"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -3869,7 +3875,7 @@
         <v>109</v>
       </c>
       <c r="I83" t="str">
-        <f t="shared" ref="I83:I112" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
+        <f t="shared" ref="I83:I114" si="5">C83&amp;"_"&amp;"sr"&amp;TEXT(D83,"00")&amp;"_"&amp;YEAR(G83)&amp;TEXT(G83,"MM")&amp;TEXT(G83,"DD")&amp;"_p"&amp;E83&amp;"_wv"&amp;TEXT(F83,"00")&amp;""</f>
         <v>uk_sr70_20210730_pE_wv26</v>
       </c>
       <c r="J83">
@@ -4920,6 +4926,78 @@
         <v>1</v>
       </c>
       <c r="K112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A113">
+        <v>8</v>
+      </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>14</v>
+      </c>
+      <c r="D113">
+        <v>100</v>
+      </c>
+      <c r="E113" t="s">
+        <v>51</v>
+      </c>
+      <c r="F113">
+        <v>41</v>
+      </c>
+      <c r="G113" s="1">
+        <v>44617</v>
+      </c>
+      <c r="H113" t="s">
+        <v>139</v>
+      </c>
+      <c r="I113" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr100_20220225_pE_wv41</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A114">
+        <v>8</v>
+      </c>
+      <c r="B114">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>14</v>
+      </c>
+      <c r="D114">
+        <v>101</v>
+      </c>
+      <c r="E114" t="s">
+        <v>54</v>
+      </c>
+      <c r="F114">
+        <v>41</v>
+      </c>
+      <c r="G114" s="1">
+        <v>44624</v>
+      </c>
+      <c r="H114" t="s">
+        <v>140</v>
+      </c>
+      <c r="I114" t="str">
+        <f t="shared" si="5"/>
+        <v>uk_sr101_20220304_pF_wv41</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
         <v>1</v>
       </c>
     </row>
